--- a/Documentatie/Strokenplanning.xlsx
+++ b/Documentatie/Strokenplanning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philip\Documents\GitHub\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD97C7C0-9F1C-4B20-87CA-CABB2F5A0A71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B0CCF1-FDF5-4F37-9160-C3C72098939C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>NB: lees alle 6 tooltips/notes (hover over cellen met rood driehoekje).</t>
   </si>
@@ -224,7 +224,10 @@
     <t>Projectplan</t>
   </si>
   <si>
-    <t>Functioneel ontwerp</t>
+    <t>Technisch Ontwerp</t>
+  </si>
+  <si>
+    <t>Functioneel Ontwerp</t>
   </si>
 </sst>
 </file>
@@ -1472,19 +1475,19 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" hidden="1" customWidth="1"/>
     <col min="6" max="33" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="34"/>
       <c r="B1" s="35" t="s">
         <v>17</v>
@@ -1521,7 +1524,7 @@
       <c r="AF1" s="37"/>
       <c r="AG1" s="38"/>
     </row>
-    <row r="2" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
         <v>18</v>
@@ -1559,7 +1562,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="40"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="28" t="s">
         <v>19</v>
@@ -1598,7 +1601,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="41"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -1641,7 +1644,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="10"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1738,7 +1741,7 @@
       <c r="AF5" s="14"/>
       <c r="AG5" s="47"/>
     </row>
-    <row r="6" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
@@ -1863,7 +1866,7 @@
         <v>44353</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="0.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="0.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50"/>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
@@ -1898,7 +1901,7 @@
       <c r="AF7" s="32"/>
       <c r="AG7" s="51"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>1</v>
       </c>
@@ -1941,7 +1944,7 @@
       <c r="AF8" s="33"/>
       <c r="AG8" s="53"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="54">
         <v>2</v>
       </c>
@@ -1991,7 +1994,7 @@
       <c r="AF9" s="33"/>
       <c r="AG9" s="53"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="54">
         <v>3</v>
       </c>
@@ -2037,15 +2040,17 @@
       <c r="AF10" s="33"/>
       <c r="AG10" s="53"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="54">
         <v>4</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="24">
+        <v>8</v>
+      </c>
       <c r="E11" s="29"/>
       <c r="F11" s="33">
         <f>IF($D11-SUM($E11:E11)&gt;F$5-SUM(F$7:F10),F$5-SUM(F$7:F10),$D11-SUM($E11:E11))</f>
@@ -2064,8 +2069,12 @@
       <c r="O11" s="33">
         <v>1.5</v>
       </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="P11" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>1.5</v>
+      </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -2083,11 +2092,13 @@
       <c r="AF11" s="33"/>
       <c r="AG11" s="53"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="54">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="29"/>
@@ -2144,7 +2155,7 @@
       <c r="AF12" s="33"/>
       <c r="AG12" s="53"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="54">
         <v>6</v>
       </c>
@@ -2220,7 +2231,7 @@
       <c r="AF13" s="33"/>
       <c r="AG13" s="53"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="54">
         <v>7</v>
       </c>
@@ -2311,7 +2322,7 @@
       <c r="AF14" s="33"/>
       <c r="AG14" s="53"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="54">
         <v>8</v>
       </c>
@@ -2402,7 +2413,7 @@
       <c r="AF15" s="33"/>
       <c r="AG15" s="53"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="54">
         <v>9</v>
       </c>
@@ -2493,7 +2504,7 @@
       <c r="AF16" s="33"/>
       <c r="AG16" s="53"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="54">
         <v>10</v>
       </c>
@@ -2584,7 +2595,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="53"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="54">
         <v>11</v>
       </c>
@@ -2675,7 +2686,7 @@
       <c r="AF18" s="33"/>
       <c r="AG18" s="53"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="54">
         <v>12</v>
       </c>
@@ -2766,7 +2777,7 @@
       <c r="AF19" s="33"/>
       <c r="AG19" s="53"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="54">
         <v>13</v>
       </c>
@@ -2857,7 +2868,7 @@
       <c r="AF20" s="33"/>
       <c r="AG20" s="53"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="54">
         <v>14</v>
       </c>
@@ -2948,7 +2959,7 @@
       <c r="AF21" s="33"/>
       <c r="AG21" s="53"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="54">
         <v>15</v>
       </c>
@@ -3039,7 +3050,7 @@
       <c r="AF22" s="33"/>
       <c r="AG22" s="53"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="54">
         <v>16</v>
       </c>
@@ -3130,7 +3141,7 @@
       <c r="AF23" s="33"/>
       <c r="AG23" s="53"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="54">
         <v>17</v>
       </c>
@@ -3221,7 +3232,7 @@
       <c r="AF24" s="33"/>
       <c r="AG24" s="53"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="54">
         <v>18</v>
       </c>
@@ -3312,7 +3323,7 @@
       <c r="AF25" s="33"/>
       <c r="AG25" s="53"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="54">
         <v>19</v>
       </c>
@@ -3403,7 +3414,7 @@
       <c r="AF26" s="33"/>
       <c r="AG26" s="53"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="54">
         <v>20</v>
       </c>
@@ -3494,7 +3505,7 @@
       <c r="AF27" s="33"/>
       <c r="AG27" s="53"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="54">
         <v>21</v>
       </c>
@@ -3585,7 +3596,7 @@
       <c r="AF28" s="33"/>
       <c r="AG28" s="53"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="54">
         <v>22</v>
       </c>
@@ -3676,7 +3687,7 @@
       <c r="AF29" s="33"/>
       <c r="AG29" s="53"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="54">
         <v>23</v>
       </c>
@@ -3767,7 +3778,7 @@
       <c r="AF30" s="33"/>
       <c r="AG30" s="53"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="54">
         <v>24</v>
       </c>
@@ -3858,7 +3869,7 @@
       <c r="AF31" s="33"/>
       <c r="AG31" s="53"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="54">
         <v>25</v>
       </c>
@@ -3949,7 +3960,7 @@
       <c r="AF32" s="33"/>
       <c r="AG32" s="53"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="54">
         <v>26</v>
       </c>
@@ -4040,7 +4051,7 @@
       <c r="AF33" s="33"/>
       <c r="AG33" s="53"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="54">
         <v>27</v>
       </c>
@@ -4131,7 +4142,7 @@
       <c r="AF34" s="33"/>
       <c r="AG34" s="53"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="54">
         <v>28</v>
       </c>
@@ -4222,7 +4233,7 @@
       <c r="AF35" s="33"/>
       <c r="AG35" s="53"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="54">
         <v>29</v>
       </c>
@@ -4313,7 +4324,7 @@
       <c r="AF36" s="33"/>
       <c r="AG36" s="53"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="54">
         <v>30</v>
       </c>
@@ -4404,7 +4415,7 @@
       <c r="AF37" s="33"/>
       <c r="AG37" s="53"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="54">
         <v>31</v>
       </c>
@@ -4495,7 +4506,7 @@
       <c r="AF38" s="33"/>
       <c r="AG38" s="53"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="54">
         <v>32</v>
       </c>
@@ -4586,7 +4597,7 @@
       <c r="AF39" s="33"/>
       <c r="AG39" s="53"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="54">
         <v>33</v>
       </c>
@@ -4677,7 +4688,7 @@
       <c r="AF40" s="33"/>
       <c r="AG40" s="53"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="54">
         <v>34</v>
       </c>
@@ -4768,7 +4779,7 @@
       <c r="AF41" s="33"/>
       <c r="AG41" s="53"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="54">
         <v>35</v>
       </c>
@@ -4859,7 +4870,7 @@
       <c r="AF42" s="33"/>
       <c r="AG42" s="53"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="54">
         <v>36</v>
       </c>
@@ -4950,7 +4961,7 @@
       <c r="AF43" s="33"/>
       <c r="AG43" s="53"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="54">
         <v>37</v>
       </c>
@@ -5041,7 +5052,7 @@
       <c r="AF44" s="33"/>
       <c r="AG44" s="53"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="54">
         <v>38</v>
       </c>
@@ -5132,7 +5143,7 @@
       <c r="AF45" s="33"/>
       <c r="AG45" s="53"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="54">
         <v>39</v>
       </c>
@@ -5223,7 +5234,7 @@
       <c r="AF46" s="33"/>
       <c r="AG46" s="53"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="54">
         <v>40</v>
       </c>
@@ -5314,7 +5325,7 @@
       <c r="AF47" s="33"/>
       <c r="AG47" s="53"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="54">
         <v>41</v>
       </c>
@@ -5405,7 +5416,7 @@
       <c r="AF48" s="33"/>
       <c r="AG48" s="53"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="54">
         <v>42</v>
       </c>
@@ -5496,7 +5507,7 @@
       <c r="AF49" s="33"/>
       <c r="AG49" s="53"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="54">
         <v>43</v>
       </c>
@@ -5587,7 +5598,7 @@
       <c r="AF50" s="33"/>
       <c r="AG50" s="53"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="54">
         <v>44</v>
       </c>
@@ -5678,7 +5689,7 @@
       <c r="AF51" s="33"/>
       <c r="AG51" s="53"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="54">
         <v>45</v>
       </c>
@@ -5769,7 +5780,7 @@
       <c r="AF52" s="33"/>
       <c r="AG52" s="53"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="54">
         <v>46</v>
       </c>
@@ -5860,7 +5871,7 @@
       <c r="AF53" s="33"/>
       <c r="AG53" s="53"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="54">
         <v>47</v>
       </c>
@@ -5951,7 +5962,7 @@
       <c r="AF54" s="33"/>
       <c r="AG54" s="53"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="54">
         <v>48</v>
       </c>
@@ -6042,7 +6053,7 @@
       <c r="AF55" s="33"/>
       <c r="AG55" s="53"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="54">
         <v>49</v>
       </c>
@@ -6133,7 +6144,7 @@
       <c r="AF56" s="33"/>
       <c r="AG56" s="53"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="54">
         <v>50</v>
       </c>
@@ -6224,7 +6235,7 @@
       <c r="AF57" s="33"/>
       <c r="AG57" s="53"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="54">
         <v>51</v>
       </c>
@@ -6315,7 +6326,7 @@
       <c r="AF58" s="33"/>
       <c r="AG58" s="53"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="54">
         <v>52</v>
       </c>
@@ -6406,7 +6417,7 @@
       <c r="AF59" s="33"/>
       <c r="AG59" s="53"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="54">
         <v>53</v>
       </c>
@@ -6497,7 +6508,7 @@
       <c r="AF60" s="33"/>
       <c r="AG60" s="53"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="54">
         <v>54</v>
       </c>
@@ -6588,7 +6599,7 @@
       <c r="AF61" s="33"/>
       <c r="AG61" s="53"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="54">
         <v>55</v>
       </c>
@@ -6679,7 +6690,7 @@
       <c r="AF62" s="33"/>
       <c r="AG62" s="53"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="54">
         <v>56</v>
       </c>
@@ -6770,7 +6781,7 @@
       <c r="AF63" s="33"/>
       <c r="AG63" s="53"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="54">
         <v>57</v>
       </c>
@@ -6861,7 +6872,7 @@
       <c r="AF64" s="33"/>
       <c r="AG64" s="53"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="54">
         <v>58</v>
       </c>
@@ -6952,7 +6963,7 @@
       <c r="AF65" s="33"/>
       <c r="AG65" s="53"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="54">
         <v>59</v>
       </c>
@@ -7043,7 +7054,7 @@
       <c r="AF66" s="33"/>
       <c r="AG66" s="53"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="54">
         <v>60</v>
       </c>
@@ -7134,7 +7145,7 @@
       <c r="AF67" s="33"/>
       <c r="AG67" s="53"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="54">
         <v>61</v>
       </c>
@@ -7225,7 +7236,7 @@
       <c r="AF68" s="33"/>
       <c r="AG68" s="53"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="54">
         <v>62</v>
       </c>
@@ -7316,7 +7327,7 @@
       <c r="AF69" s="33"/>
       <c r="AG69" s="53"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="54">
         <v>63</v>
       </c>
@@ -7407,7 +7418,7 @@
       <c r="AF70" s="33"/>
       <c r="AG70" s="53"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="54">
         <v>64</v>
       </c>
@@ -7498,7 +7509,7 @@
       <c r="AF71" s="33"/>
       <c r="AG71" s="53"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="54">
         <v>65</v>
       </c>
@@ -7589,7 +7600,7 @@
       <c r="AF72" s="33"/>
       <c r="AG72" s="53"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="54">
         <v>66</v>
       </c>
@@ -7680,7 +7691,7 @@
       <c r="AF73" s="33"/>
       <c r="AG73" s="53"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74" s="54">
         <v>67</v>
       </c>
@@ -7771,7 +7782,7 @@
       <c r="AF74" s="33"/>
       <c r="AG74" s="53"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="54">
         <v>68</v>
       </c>
@@ -7862,7 +7873,7 @@
       <c r="AF75" s="33"/>
       <c r="AG75" s="53"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="54">
         <v>69</v>
       </c>
@@ -7953,7 +7964,7 @@
       <c r="AF76" s="33"/>
       <c r="AG76" s="53"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="54">
         <v>70</v>
       </c>
@@ -8044,7 +8055,7 @@
       <c r="AF77" s="33"/>
       <c r="AG77" s="53"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="54">
         <v>71</v>
       </c>
@@ -8135,7 +8146,7 @@
       <c r="AF78" s="33"/>
       <c r="AG78" s="53"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="54">
         <v>72</v>
       </c>
@@ -8226,7 +8237,7 @@
       <c r="AF79" s="33"/>
       <c r="AG79" s="53"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="54">
         <v>73</v>
       </c>
@@ -8317,7 +8328,7 @@
       <c r="AF80" s="33"/>
       <c r="AG80" s="53"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="54">
         <v>74</v>
       </c>
@@ -8408,7 +8419,7 @@
       <c r="AF81" s="33"/>
       <c r="AG81" s="53"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="54">
         <v>75</v>
       </c>
@@ -8499,7 +8510,7 @@
       <c r="AF82" s="33"/>
       <c r="AG82" s="53"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="54">
         <v>76</v>
       </c>
@@ -8590,7 +8601,7 @@
       <c r="AF83" s="33"/>
       <c r="AG83" s="53"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="54">
         <v>77</v>
       </c>
@@ -8681,7 +8692,7 @@
       <c r="AF84" s="33"/>
       <c r="AG84" s="53"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="54">
         <v>78</v>
       </c>
@@ -8772,7 +8783,7 @@
       <c r="AF85" s="33"/>
       <c r="AG85" s="53"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="54">
         <v>79</v>
       </c>
@@ -8863,7 +8874,7 @@
       <c r="AF86" s="33"/>
       <c r="AG86" s="53"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="54">
         <v>80</v>
       </c>
@@ -8954,7 +8965,7 @@
       <c r="AF87" s="33"/>
       <c r="AG87" s="53"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="54">
         <v>81</v>
       </c>
@@ -9045,7 +9056,7 @@
       <c r="AF88" s="33"/>
       <c r="AG88" s="53"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="54">
         <v>82</v>
       </c>
@@ -9136,7 +9147,7 @@
       <c r="AF89" s="33"/>
       <c r="AG89" s="53"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="54">
         <v>83</v>
       </c>
@@ -9227,7 +9238,7 @@
       <c r="AF90" s="33"/>
       <c r="AG90" s="53"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="54">
         <v>84</v>
       </c>
@@ -9318,7 +9329,7 @@
       <c r="AF91" s="33"/>
       <c r="AG91" s="53"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="54">
         <v>85</v>
       </c>
@@ -9409,7 +9420,7 @@
       <c r="AF92" s="33"/>
       <c r="AG92" s="53"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="54">
         <v>86</v>
       </c>
@@ -9500,7 +9511,7 @@
       <c r="AF93" s="33"/>
       <c r="AG93" s="53"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="54">
         <v>87</v>
       </c>
@@ -9591,7 +9602,7 @@
       <c r="AF94" s="33"/>
       <c r="AG94" s="53"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="54">
         <v>88</v>
       </c>
@@ -9682,7 +9693,7 @@
       <c r="AF95" s="33"/>
       <c r="AG95" s="53"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="54">
         <v>89</v>
       </c>
@@ -9773,7 +9784,7 @@
       <c r="AF96" s="33"/>
       <c r="AG96" s="53"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="54">
         <v>90</v>
       </c>
@@ -9864,7 +9875,7 @@
       <c r="AF97" s="33"/>
       <c r="AG97" s="53"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="54">
         <v>91</v>
       </c>
@@ -9955,7 +9966,7 @@
       <c r="AF98" s="33"/>
       <c r="AG98" s="53"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="54">
         <v>92</v>
       </c>
@@ -10046,7 +10057,7 @@
       <c r="AF99" s="33"/>
       <c r="AG99" s="53"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="54">
         <v>93</v>
       </c>
@@ -10137,7 +10148,7 @@
       <c r="AF100" s="33"/>
       <c r="AG100" s="53"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="54">
         <v>94</v>
       </c>
@@ -10228,7 +10239,7 @@
       <c r="AF101" s="33"/>
       <c r="AG101" s="53"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="54">
         <v>95</v>
       </c>
@@ -10319,7 +10330,7 @@
       <c r="AF102" s="33"/>
       <c r="AG102" s="53"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="54">
         <v>96</v>
       </c>
@@ -10410,7 +10421,7 @@
       <c r="AF103" s="33"/>
       <c r="AG103" s="53"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="54">
         <v>97</v>
       </c>
@@ -10501,7 +10512,7 @@
       <c r="AF104" s="33"/>
       <c r="AG104" s="53"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="54">
         <v>98</v>
       </c>
@@ -10592,7 +10603,7 @@
       <c r="AF105" s="33"/>
       <c r="AG105" s="53"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="54">
         <v>99</v>
       </c>
@@ -10683,7 +10694,7 @@
       <c r="AF106" s="33"/>
       <c r="AG106" s="53"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="55">
         <v>100</v>
       </c>
@@ -10867,23 +10878,23 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="71"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
@@ -10891,7 +10902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -10899,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -10907,7 +10918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -10915,7 +10926,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -10923,7 +10934,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -10948,29 +10959,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11245,27 +11233,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11283,4 +11274,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/Strokenplanning.xlsx
+++ b/Documentatie/Strokenplanning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philip\Documents\GitHub\RPM-Proftaak\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B0CCF1-FDF5-4F37-9160-C3C72098939C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D85029-C3D9-49B4-9192-8E7B9828954F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="4" r:id="rId1"/>
@@ -1475,19 +1475,19 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" hidden="1" customWidth="1"/>
     <col min="6" max="33" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="35" t="s">
         <v>17</v>
@@ -1524,7 +1524,7 @@
       <c r="AF1" s="37"/>
       <c r="AG1" s="38"/>
     </row>
-    <row r="2" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="28" t="s">
         <v>18</v>
@@ -1562,7 +1562,7 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="40"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="28" t="s">
         <v>19</v>
@@ -1601,7 +1601,7 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="41"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -1644,7 +1644,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="10"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1657,7 +1657,6 @@
         <v>1</v>
       </c>
       <c r="G5" s="14">
-        <f>Uren!$C$6</f>
         <v>5</v>
       </c>
       <c r="H5" s="14">
@@ -1679,7 +1678,6 @@
         <v>1</v>
       </c>
       <c r="N5" s="14">
-        <f>Uren!$C$6</f>
         <v>5</v>
       </c>
       <c r="O5" s="14">
@@ -1696,13 +1694,13 @@
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="14">
+      <c r="T5" s="65">
         <f>Uren!$C$5</f>
         <v>1</v>
       </c>
       <c r="U5" s="14">
         <f>Uren!$C$6</f>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="V5" s="14">
         <f>Uren!$C$7</f>
@@ -1724,7 +1722,7 @@
       </c>
       <c r="AB5" s="14">
         <f>Uren!$C$6</f>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AC5" s="14">
         <f>Uren!$C$7</f>
@@ -1741,7 +1739,7 @@
       <c r="AF5" s="14"/>
       <c r="AG5" s="47"/>
     </row>
-    <row r="6" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
@@ -1809,7 +1807,7 @@
         <f t="shared" si="0"/>
         <v>44339</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="66">
         <f t="shared" si="0"/>
         <v>44340</v>
       </c>
@@ -1866,7 +1864,7 @@
         <v>44353</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="0.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="0.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
@@ -1886,7 +1884,7 @@
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
+      <c r="T7" s="67"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
@@ -1901,7 +1899,7 @@
       <c r="AF7" s="32"/>
       <c r="AG7" s="51"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>1</v>
       </c>
@@ -1929,7 +1927,7 @@
       <c r="Q8" s="33"/>
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
+      <c r="T8" s="68"/>
       <c r="U8" s="33"/>
       <c r="V8" s="33"/>
       <c r="W8" s="33"/>
@@ -1944,7 +1942,7 @@
       <c r="AF8" s="33"/>
       <c r="AG8" s="53"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>2</v>
       </c>
@@ -1979,7 +1977,7 @@
       <c r="Q9" s="33"/>
       <c r="R9" s="33"/>
       <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
+      <c r="T9" s="68"/>
       <c r="U9" s="33"/>
       <c r="V9" s="33"/>
       <c r="W9" s="33"/>
@@ -1994,7 +1992,7 @@
       <c r="AF9" s="33"/>
       <c r="AG9" s="53"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>3</v>
       </c>
@@ -2025,7 +2023,7 @@
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
       <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
+      <c r="T10" s="68"/>
       <c r="U10" s="33"/>
       <c r="V10" s="33"/>
       <c r="W10" s="33"/>
@@ -2040,7 +2038,7 @@
       <c r="AF10" s="33"/>
       <c r="AG10" s="53"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>4</v>
       </c>
@@ -2070,14 +2068,14 @@
         <v>1.5</v>
       </c>
       <c r="P11" s="33">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" s="33">
         <v>1.5</v>
       </c>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
+      <c r="T11" s="68"/>
       <c r="U11" s="33"/>
       <c r="V11" s="33"/>
       <c r="W11" s="33"/>
@@ -2092,7 +2090,7 @@
       <c r="AF11" s="33"/>
       <c r="AG11" s="53"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>5</v>
       </c>
@@ -2135,12 +2133,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="33">
-        <f>IF($D12-SUM($E12:P12)&gt;Q$5-SUM(Q$7:Q11),Q$5-SUM(Q$7:Q11),$D12-SUM($E12:P12))</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
+      <c r="T12" s="68"/>
       <c r="U12" s="33"/>
       <c r="V12" s="33"/>
       <c r="W12" s="33"/>
@@ -2155,7 +2152,7 @@
       <c r="AF12" s="33"/>
       <c r="AG12" s="53"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>6</v>
       </c>
@@ -2201,26 +2198,13 @@
       </c>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
-      <c r="T13" s="33">
-        <f>IF($D13-SUM($E13:S13)&gt;T$5-SUM(T$7:T12),T$5-SUM(T$7:T12),$D13-SUM($E13:S13))</f>
-        <v>0</v>
-      </c>
+      <c r="T13" s="68"/>
       <c r="U13" s="33">
-        <f>IF($D13-SUM($E13:T13)&gt;U$5-SUM(U$7:U12),U$5-SUM(U$7:U12),$D13-SUM($E13:T13))</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="33">
-        <f>IF($D13-SUM($E13:U13)&gt;V$5-SUM(V$7:V12),V$5-SUM(V$7:V12),$D13-SUM($E13:U13))</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="33">
-        <f>IF($D13-SUM($E13:V13)&gt;W$5-SUM(W$7:W12),W$5-SUM(W$7:W12),$D13-SUM($E13:V13))</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="33">
-        <f>IF($D13-SUM($E13:W13)&gt;X$5-SUM(X$7:X12),X$5-SUM(X$7:X12),$D13-SUM($E13:W13))</f>
-        <v>0</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
@@ -2231,7 +2215,7 @@
       <c r="AF13" s="33"/>
       <c r="AG13" s="53"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>7</v>
       </c>
@@ -2277,10 +2261,7 @@
       </c>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
-      <c r="T14" s="33">
-        <f>IF($D14-SUM($E14:S14)&gt;T$5-SUM(T$7:T13),T$5-SUM(T$7:T13),$D14-SUM($E14:S14))</f>
-        <v>0</v>
-      </c>
+      <c r="T14" s="68"/>
       <c r="U14" s="33">
         <f>IF($D14-SUM($E14:T14)&gt;U$5-SUM(U$7:U13),U$5-SUM(U$7:U13),$D14-SUM($E14:T14))</f>
         <v>0</v>
@@ -2322,7 +2303,7 @@
       <c r="AF14" s="33"/>
       <c r="AG14" s="53"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>8</v>
       </c>
@@ -2368,10 +2349,7 @@
       </c>
       <c r="R15" s="33"/>
       <c r="S15" s="33"/>
-      <c r="T15" s="33">
-        <f>IF($D15-SUM($E15:S15)&gt;T$5-SUM(T$7:T14),T$5-SUM(T$7:T14),$D15-SUM($E15:S15))</f>
-        <v>0</v>
-      </c>
+      <c r="T15" s="68"/>
       <c r="U15" s="33">
         <f>IF($D15-SUM($E15:T15)&gt;U$5-SUM(U$7:U14),U$5-SUM(U$7:U14),$D15-SUM($E15:T15))</f>
         <v>0</v>
@@ -2413,7 +2391,7 @@
       <c r="AF15" s="33"/>
       <c r="AG15" s="53"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>9</v>
       </c>
@@ -2459,10 +2437,7 @@
       </c>
       <c r="R16" s="33"/>
       <c r="S16" s="33"/>
-      <c r="T16" s="33">
-        <f>IF($D16-SUM($E16:S16)&gt;T$5-SUM(T$7:T15),T$5-SUM(T$7:T15),$D16-SUM($E16:S16))</f>
-        <v>0</v>
-      </c>
+      <c r="T16" s="68"/>
       <c r="U16" s="33">
         <f>IF($D16-SUM($E16:T16)&gt;U$5-SUM(U$7:U15),U$5-SUM(U$7:U15),$D16-SUM($E16:T16))</f>
         <v>0</v>
@@ -2504,7 +2479,7 @@
       <c r="AF16" s="33"/>
       <c r="AG16" s="53"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>10</v>
       </c>
@@ -2550,10 +2525,7 @@
       </c>
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
-      <c r="T17" s="33">
-        <f>IF($D17-SUM($E17:S17)&gt;T$5-SUM(T$7:T16),T$5-SUM(T$7:T16),$D17-SUM($E17:S17))</f>
-        <v>0</v>
-      </c>
+      <c r="T17" s="68"/>
       <c r="U17" s="33">
         <f>IF($D17-SUM($E17:T17)&gt;U$5-SUM(U$7:U16),U$5-SUM(U$7:U16),$D17-SUM($E17:T17))</f>
         <v>0</v>
@@ -2595,7 +2567,7 @@
       <c r="AF17" s="33"/>
       <c r="AG17" s="53"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>11</v>
       </c>
@@ -2641,10 +2613,7 @@
       </c>
       <c r="R18" s="33"/>
       <c r="S18" s="33"/>
-      <c r="T18" s="33">
-        <f>IF($D18-SUM($E18:S18)&gt;T$5-SUM(T$7:T17),T$5-SUM(T$7:T17),$D18-SUM($E18:S18))</f>
-        <v>0</v>
-      </c>
+      <c r="T18" s="68"/>
       <c r="U18" s="33">
         <f>IF($D18-SUM($E18:T18)&gt;U$5-SUM(U$7:U17),U$5-SUM(U$7:U17),$D18-SUM($E18:T18))</f>
         <v>0</v>
@@ -2686,7 +2655,7 @@
       <c r="AF18" s="33"/>
       <c r="AG18" s="53"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>12</v>
       </c>
@@ -2732,10 +2701,7 @@
       </c>
       <c r="R19" s="33"/>
       <c r="S19" s="33"/>
-      <c r="T19" s="33">
-        <f>IF($D19-SUM($E19:S19)&gt;T$5-SUM(T$7:T18),T$5-SUM(T$7:T18),$D19-SUM($E19:S19))</f>
-        <v>0</v>
-      </c>
+      <c r="T19" s="68"/>
       <c r="U19" s="33">
         <f>IF($D19-SUM($E19:T19)&gt;U$5-SUM(U$7:U18),U$5-SUM(U$7:U18),$D19-SUM($E19:T19))</f>
         <v>0</v>
@@ -2777,7 +2743,7 @@
       <c r="AF19" s="33"/>
       <c r="AG19" s="53"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>13</v>
       </c>
@@ -2823,10 +2789,7 @@
       </c>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
-      <c r="T20" s="33">
-        <f>IF($D20-SUM($E20:S20)&gt;T$5-SUM(T$7:T19),T$5-SUM(T$7:T19),$D20-SUM($E20:S20))</f>
-        <v>0</v>
-      </c>
+      <c r="T20" s="68"/>
       <c r="U20" s="33">
         <f>IF($D20-SUM($E20:T20)&gt;U$5-SUM(U$7:U19),U$5-SUM(U$7:U19),$D20-SUM($E20:T20))</f>
         <v>0</v>
@@ -2868,7 +2831,7 @@
       <c r="AF20" s="33"/>
       <c r="AG20" s="53"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>14</v>
       </c>
@@ -2914,10 +2877,7 @@
       </c>
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
-      <c r="T21" s="33">
-        <f>IF($D21-SUM($E21:S21)&gt;T$5-SUM(T$7:T20),T$5-SUM(T$7:T20),$D21-SUM($E21:S21))</f>
-        <v>0</v>
-      </c>
+      <c r="T21" s="68"/>
       <c r="U21" s="33">
         <f>IF($D21-SUM($E21:T21)&gt;U$5-SUM(U$7:U20),U$5-SUM(U$7:U20),$D21-SUM($E21:T21))</f>
         <v>0</v>
@@ -2959,7 +2919,7 @@
       <c r="AF21" s="33"/>
       <c r="AG21" s="53"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>15</v>
       </c>
@@ -3005,10 +2965,7 @@
       </c>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
-      <c r="T22" s="33">
-        <f>IF($D22-SUM($E22:S22)&gt;T$5-SUM(T$7:T21),T$5-SUM(T$7:T21),$D22-SUM($E22:S22))</f>
-        <v>0</v>
-      </c>
+      <c r="T22" s="68"/>
       <c r="U22" s="33">
         <f>IF($D22-SUM($E22:T22)&gt;U$5-SUM(U$7:U21),U$5-SUM(U$7:U21),$D22-SUM($E22:T22))</f>
         <v>0</v>
@@ -3050,7 +3007,7 @@
       <c r="AF22" s="33"/>
       <c r="AG22" s="53"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>16</v>
       </c>
@@ -3096,10 +3053,7 @@
       </c>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
-      <c r="T23" s="33">
-        <f>IF($D23-SUM($E23:S23)&gt;T$5-SUM(T$7:T22),T$5-SUM(T$7:T22),$D23-SUM($E23:S23))</f>
-        <v>0</v>
-      </c>
+      <c r="T23" s="68"/>
       <c r="U23" s="33">
         <f>IF($D23-SUM($E23:T23)&gt;U$5-SUM(U$7:U22),U$5-SUM(U$7:U22),$D23-SUM($E23:T23))</f>
         <v>0</v>
@@ -3141,7 +3095,7 @@
       <c r="AF23" s="33"/>
       <c r="AG23" s="53"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>17</v>
       </c>
@@ -3187,10 +3141,7 @@
       </c>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
-      <c r="T24" s="33">
-        <f>IF($D24-SUM($E24:S24)&gt;T$5-SUM(T$7:T23),T$5-SUM(T$7:T23),$D24-SUM($E24:S24))</f>
-        <v>0</v>
-      </c>
+      <c r="T24" s="68"/>
       <c r="U24" s="33">
         <f>IF($D24-SUM($E24:T24)&gt;U$5-SUM(U$7:U23),U$5-SUM(U$7:U23),$D24-SUM($E24:T24))</f>
         <v>0</v>
@@ -3232,7 +3183,7 @@
       <c r="AF24" s="33"/>
       <c r="AG24" s="53"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>18</v>
       </c>
@@ -3278,10 +3229,7 @@
       </c>
       <c r="R25" s="33"/>
       <c r="S25" s="33"/>
-      <c r="T25" s="33">
-        <f>IF($D25-SUM($E25:S25)&gt;T$5-SUM(T$7:T24),T$5-SUM(T$7:T24),$D25-SUM($E25:S25))</f>
-        <v>0</v>
-      </c>
+      <c r="T25" s="68"/>
       <c r="U25" s="33">
         <f>IF($D25-SUM($E25:T25)&gt;U$5-SUM(U$7:U24),U$5-SUM(U$7:U24),$D25-SUM($E25:T25))</f>
         <v>0</v>
@@ -3323,7 +3271,7 @@
       <c r="AF25" s="33"/>
       <c r="AG25" s="53"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>19</v>
       </c>
@@ -3369,10 +3317,7 @@
       </c>
       <c r="R26" s="33"/>
       <c r="S26" s="33"/>
-      <c r="T26" s="33">
-        <f>IF($D26-SUM($E26:S26)&gt;T$5-SUM(T$7:T25),T$5-SUM(T$7:T25),$D26-SUM($E26:S26))</f>
-        <v>0</v>
-      </c>
+      <c r="T26" s="68"/>
       <c r="U26" s="33">
         <f>IF($D26-SUM($E26:T26)&gt;U$5-SUM(U$7:U25),U$5-SUM(U$7:U25),$D26-SUM($E26:T26))</f>
         <v>0</v>
@@ -3414,7 +3359,7 @@
       <c r="AF26" s="33"/>
       <c r="AG26" s="53"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>20</v>
       </c>
@@ -3460,10 +3405,7 @@
       </c>
       <c r="R27" s="33"/>
       <c r="S27" s="33"/>
-      <c r="T27" s="33">
-        <f>IF($D27-SUM($E27:S27)&gt;T$5-SUM(T$7:T26),T$5-SUM(T$7:T26),$D27-SUM($E27:S27))</f>
-        <v>0</v>
-      </c>
+      <c r="T27" s="68"/>
       <c r="U27" s="33">
         <f>IF($D27-SUM($E27:T27)&gt;U$5-SUM(U$7:U26),U$5-SUM(U$7:U26),$D27-SUM($E27:T27))</f>
         <v>0</v>
@@ -3505,7 +3447,7 @@
       <c r="AF27" s="33"/>
       <c r="AG27" s="53"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>21</v>
       </c>
@@ -3551,10 +3493,7 @@
       </c>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
-      <c r="T28" s="33">
-        <f>IF($D28-SUM($E28:S28)&gt;T$5-SUM(T$7:T27),T$5-SUM(T$7:T27),$D28-SUM($E28:S28))</f>
-        <v>0</v>
-      </c>
+      <c r="T28" s="68"/>
       <c r="U28" s="33">
         <f>IF($D28-SUM($E28:T28)&gt;U$5-SUM(U$7:U27),U$5-SUM(U$7:U27),$D28-SUM($E28:T28))</f>
         <v>0</v>
@@ -3596,7 +3535,7 @@
       <c r="AF28" s="33"/>
       <c r="AG28" s="53"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>22</v>
       </c>
@@ -3642,10 +3581,7 @@
       </c>
       <c r="R29" s="33"/>
       <c r="S29" s="33"/>
-      <c r="T29" s="33">
-        <f>IF($D29-SUM($E29:S29)&gt;T$5-SUM(T$7:T28),T$5-SUM(T$7:T28),$D29-SUM($E29:S29))</f>
-        <v>0</v>
-      </c>
+      <c r="T29" s="68"/>
       <c r="U29" s="33">
         <f>IF($D29-SUM($E29:T29)&gt;U$5-SUM(U$7:U28),U$5-SUM(U$7:U28),$D29-SUM($E29:T29))</f>
         <v>0</v>
@@ -3687,7 +3623,7 @@
       <c r="AF29" s="33"/>
       <c r="AG29" s="53"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>23</v>
       </c>
@@ -3733,10 +3669,7 @@
       </c>
       <c r="R30" s="33"/>
       <c r="S30" s="33"/>
-      <c r="T30" s="33">
-        <f>IF($D30-SUM($E30:S30)&gt;T$5-SUM(T$7:T29),T$5-SUM(T$7:T29),$D30-SUM($E30:S30))</f>
-        <v>0</v>
-      </c>
+      <c r="T30" s="68"/>
       <c r="U30" s="33">
         <f>IF($D30-SUM($E30:T30)&gt;U$5-SUM(U$7:U29),U$5-SUM(U$7:U29),$D30-SUM($E30:T30))</f>
         <v>0</v>
@@ -3778,7 +3711,7 @@
       <c r="AF30" s="33"/>
       <c r="AG30" s="53"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>24</v>
       </c>
@@ -3824,10 +3757,7 @@
       </c>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
-      <c r="T31" s="33">
-        <f>IF($D31-SUM($E31:S31)&gt;T$5-SUM(T$7:T30),T$5-SUM(T$7:T30),$D31-SUM($E31:S31))</f>
-        <v>0</v>
-      </c>
+      <c r="T31" s="68"/>
       <c r="U31" s="33">
         <f>IF($D31-SUM($E31:T31)&gt;U$5-SUM(U$7:U30),U$5-SUM(U$7:U30),$D31-SUM($E31:T31))</f>
         <v>0</v>
@@ -3869,7 +3799,7 @@
       <c r="AF31" s="33"/>
       <c r="AG31" s="53"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>25</v>
       </c>
@@ -3915,10 +3845,7 @@
       </c>
       <c r="R32" s="33"/>
       <c r="S32" s="33"/>
-      <c r="T32" s="33">
-        <f>IF($D32-SUM($E32:S32)&gt;T$5-SUM(T$7:T31),T$5-SUM(T$7:T31),$D32-SUM($E32:S32))</f>
-        <v>0</v>
-      </c>
+      <c r="T32" s="68"/>
       <c r="U32" s="33">
         <f>IF($D32-SUM($E32:T32)&gt;U$5-SUM(U$7:U31),U$5-SUM(U$7:U31),$D32-SUM($E32:T32))</f>
         <v>0</v>
@@ -3960,7 +3887,7 @@
       <c r="AF32" s="33"/>
       <c r="AG32" s="53"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>26</v>
       </c>
@@ -4006,10 +3933,7 @@
       </c>
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
-      <c r="T33" s="33">
-        <f>IF($D33-SUM($E33:S33)&gt;T$5-SUM(T$7:T32),T$5-SUM(T$7:T32),$D33-SUM($E33:S33))</f>
-        <v>0</v>
-      </c>
+      <c r="T33" s="68"/>
       <c r="U33" s="33">
         <f>IF($D33-SUM($E33:T33)&gt;U$5-SUM(U$7:U32),U$5-SUM(U$7:U32),$D33-SUM($E33:T33))</f>
         <v>0</v>
@@ -4051,7 +3975,7 @@
       <c r="AF33" s="33"/>
       <c r="AG33" s="53"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>27</v>
       </c>
@@ -4097,10 +4021,7 @@
       </c>
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
-      <c r="T34" s="33">
-        <f>IF($D34-SUM($E34:S34)&gt;T$5-SUM(T$7:T33),T$5-SUM(T$7:T33),$D34-SUM($E34:S34))</f>
-        <v>0</v>
-      </c>
+      <c r="T34" s="68"/>
       <c r="U34" s="33">
         <f>IF($D34-SUM($E34:T34)&gt;U$5-SUM(U$7:U33),U$5-SUM(U$7:U33),$D34-SUM($E34:T34))</f>
         <v>0</v>
@@ -4142,7 +4063,7 @@
       <c r="AF34" s="33"/>
       <c r="AG34" s="53"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>28</v>
       </c>
@@ -4188,10 +4109,7 @@
       </c>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
-      <c r="T35" s="33">
-        <f>IF($D35-SUM($E35:S35)&gt;T$5-SUM(T$7:T34),T$5-SUM(T$7:T34),$D35-SUM($E35:S35))</f>
-        <v>0</v>
-      </c>
+      <c r="T35" s="68"/>
       <c r="U35" s="33">
         <f>IF($D35-SUM($E35:T35)&gt;U$5-SUM(U$7:U34),U$5-SUM(U$7:U34),$D35-SUM($E35:T35))</f>
         <v>0</v>
@@ -4233,7 +4151,7 @@
       <c r="AF35" s="33"/>
       <c r="AG35" s="53"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>29</v>
       </c>
@@ -4279,10 +4197,7 @@
       </c>
       <c r="R36" s="33"/>
       <c r="S36" s="33"/>
-      <c r="T36" s="33">
-        <f>IF($D36-SUM($E36:S36)&gt;T$5-SUM(T$7:T35),T$5-SUM(T$7:T35),$D36-SUM($E36:S36))</f>
-        <v>0</v>
-      </c>
+      <c r="T36" s="68"/>
       <c r="U36" s="33">
         <f>IF($D36-SUM($E36:T36)&gt;U$5-SUM(U$7:U35),U$5-SUM(U$7:U35),$D36-SUM($E36:T36))</f>
         <v>0</v>
@@ -4324,7 +4239,7 @@
       <c r="AF36" s="33"/>
       <c r="AG36" s="53"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>30</v>
       </c>
@@ -4370,10 +4285,7 @@
       </c>
       <c r="R37" s="33"/>
       <c r="S37" s="33"/>
-      <c r="T37" s="33">
-        <f>IF($D37-SUM($E37:S37)&gt;T$5-SUM(T$7:T36),T$5-SUM(T$7:T36),$D37-SUM($E37:S37))</f>
-        <v>0</v>
-      </c>
+      <c r="T37" s="68"/>
       <c r="U37" s="33">
         <f>IF($D37-SUM($E37:T37)&gt;U$5-SUM(U$7:U36),U$5-SUM(U$7:U36),$D37-SUM($E37:T37))</f>
         <v>0</v>
@@ -4415,7 +4327,7 @@
       <c r="AF37" s="33"/>
       <c r="AG37" s="53"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>31</v>
       </c>
@@ -4461,10 +4373,7 @@
       </c>
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
-      <c r="T38" s="33">
-        <f>IF($D38-SUM($E38:S38)&gt;T$5-SUM(T$7:T37),T$5-SUM(T$7:T37),$D38-SUM($E38:S38))</f>
-        <v>0</v>
-      </c>
+      <c r="T38" s="68"/>
       <c r="U38" s="33">
         <f>IF($D38-SUM($E38:T38)&gt;U$5-SUM(U$7:U37),U$5-SUM(U$7:U37),$D38-SUM($E38:T38))</f>
         <v>0</v>
@@ -4506,7 +4415,7 @@
       <c r="AF38" s="33"/>
       <c r="AG38" s="53"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>32</v>
       </c>
@@ -4552,10 +4461,7 @@
       </c>
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
-      <c r="T39" s="33">
-        <f>IF($D39-SUM($E39:S39)&gt;T$5-SUM(T$7:T38),T$5-SUM(T$7:T38),$D39-SUM($E39:S39))</f>
-        <v>0</v>
-      </c>
+      <c r="T39" s="68"/>
       <c r="U39" s="33">
         <f>IF($D39-SUM($E39:T39)&gt;U$5-SUM(U$7:U38),U$5-SUM(U$7:U38),$D39-SUM($E39:T39))</f>
         <v>0</v>
@@ -4597,7 +4503,7 @@
       <c r="AF39" s="33"/>
       <c r="AG39" s="53"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>33</v>
       </c>
@@ -4643,10 +4549,7 @@
       </c>
       <c r="R40" s="33"/>
       <c r="S40" s="33"/>
-      <c r="T40" s="33">
-        <f>IF($D40-SUM($E40:S40)&gt;T$5-SUM(T$7:T39),T$5-SUM(T$7:T39),$D40-SUM($E40:S40))</f>
-        <v>0</v>
-      </c>
+      <c r="T40" s="68"/>
       <c r="U40" s="33">
         <f>IF($D40-SUM($E40:T40)&gt;U$5-SUM(U$7:U39),U$5-SUM(U$7:U39),$D40-SUM($E40:T40))</f>
         <v>0</v>
@@ -4688,7 +4591,7 @@
       <c r="AF40" s="33"/>
       <c r="AG40" s="53"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>34</v>
       </c>
@@ -4734,10 +4637,7 @@
       </c>
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
-      <c r="T41" s="33">
-        <f>IF($D41-SUM($E41:S41)&gt;T$5-SUM(T$7:T40),T$5-SUM(T$7:T40),$D41-SUM($E41:S41))</f>
-        <v>0</v>
-      </c>
+      <c r="T41" s="68"/>
       <c r="U41" s="33">
         <f>IF($D41-SUM($E41:T41)&gt;U$5-SUM(U$7:U40),U$5-SUM(U$7:U40),$D41-SUM($E41:T41))</f>
         <v>0</v>
@@ -4779,7 +4679,7 @@
       <c r="AF41" s="33"/>
       <c r="AG41" s="53"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>35</v>
       </c>
@@ -4825,10 +4725,7 @@
       </c>
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
-      <c r="T42" s="33">
-        <f>IF($D42-SUM($E42:S42)&gt;T$5-SUM(T$7:T41),T$5-SUM(T$7:T41),$D42-SUM($E42:S42))</f>
-        <v>0</v>
-      </c>
+      <c r="T42" s="68"/>
       <c r="U42" s="33">
         <f>IF($D42-SUM($E42:T42)&gt;U$5-SUM(U$7:U41),U$5-SUM(U$7:U41),$D42-SUM($E42:T42))</f>
         <v>0</v>
@@ -4870,7 +4767,7 @@
       <c r="AF42" s="33"/>
       <c r="AG42" s="53"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>36</v>
       </c>
@@ -4916,10 +4813,7 @@
       </c>
       <c r="R43" s="33"/>
       <c r="S43" s="33"/>
-      <c r="T43" s="33">
-        <f>IF($D43-SUM($E43:S43)&gt;T$5-SUM(T$7:T42),T$5-SUM(T$7:T42),$D43-SUM($E43:S43))</f>
-        <v>0</v>
-      </c>
+      <c r="T43" s="68"/>
       <c r="U43" s="33">
         <f>IF($D43-SUM($E43:T43)&gt;U$5-SUM(U$7:U42),U$5-SUM(U$7:U42),$D43-SUM($E43:T43))</f>
         <v>0</v>
@@ -4961,7 +4855,7 @@
       <c r="AF43" s="33"/>
       <c r="AG43" s="53"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>37</v>
       </c>
@@ -5007,10 +4901,7 @@
       </c>
       <c r="R44" s="33"/>
       <c r="S44" s="33"/>
-      <c r="T44" s="33">
-        <f>IF($D44-SUM($E44:S44)&gt;T$5-SUM(T$7:T43),T$5-SUM(T$7:T43),$D44-SUM($E44:S44))</f>
-        <v>0</v>
-      </c>
+      <c r="T44" s="68"/>
       <c r="U44" s="33">
         <f>IF($D44-SUM($E44:T44)&gt;U$5-SUM(U$7:U43),U$5-SUM(U$7:U43),$D44-SUM($E44:T44))</f>
         <v>0</v>
@@ -5052,7 +4943,7 @@
       <c r="AF44" s="33"/>
       <c r="AG44" s="53"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>38</v>
       </c>
@@ -5098,10 +4989,7 @@
       </c>
       <c r="R45" s="33"/>
       <c r="S45" s="33"/>
-      <c r="T45" s="33">
-        <f>IF($D45-SUM($E45:S45)&gt;T$5-SUM(T$7:T44),T$5-SUM(T$7:T44),$D45-SUM($E45:S45))</f>
-        <v>0</v>
-      </c>
+      <c r="T45" s="68"/>
       <c r="U45" s="33">
         <f>IF($D45-SUM($E45:T45)&gt;U$5-SUM(U$7:U44),U$5-SUM(U$7:U44),$D45-SUM($E45:T45))</f>
         <v>0</v>
@@ -5143,7 +5031,7 @@
       <c r="AF45" s="33"/>
       <c r="AG45" s="53"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>39</v>
       </c>
@@ -5189,10 +5077,7 @@
       </c>
       <c r="R46" s="33"/>
       <c r="S46" s="33"/>
-      <c r="T46" s="33">
-        <f>IF($D46-SUM($E46:S46)&gt;T$5-SUM(T$7:T45),T$5-SUM(T$7:T45),$D46-SUM($E46:S46))</f>
-        <v>0</v>
-      </c>
+      <c r="T46" s="68"/>
       <c r="U46" s="33">
         <f>IF($D46-SUM($E46:T46)&gt;U$5-SUM(U$7:U45),U$5-SUM(U$7:U45),$D46-SUM($E46:T46))</f>
         <v>0</v>
@@ -5234,7 +5119,7 @@
       <c r="AF46" s="33"/>
       <c r="AG46" s="53"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>40</v>
       </c>
@@ -5280,10 +5165,7 @@
       </c>
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
-      <c r="T47" s="33">
-        <f>IF($D47-SUM($E47:S47)&gt;T$5-SUM(T$7:T46),T$5-SUM(T$7:T46),$D47-SUM($E47:S47))</f>
-        <v>0</v>
-      </c>
+      <c r="T47" s="68"/>
       <c r="U47" s="33">
         <f>IF($D47-SUM($E47:T47)&gt;U$5-SUM(U$7:U46),U$5-SUM(U$7:U46),$D47-SUM($E47:T47))</f>
         <v>0</v>
@@ -5325,7 +5207,7 @@
       <c r="AF47" s="33"/>
       <c r="AG47" s="53"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>41</v>
       </c>
@@ -5371,10 +5253,7 @@
       </c>
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
-      <c r="T48" s="33">
-        <f>IF($D48-SUM($E48:S48)&gt;T$5-SUM(T$7:T47),T$5-SUM(T$7:T47),$D48-SUM($E48:S48))</f>
-        <v>0</v>
-      </c>
+      <c r="T48" s="68"/>
       <c r="U48" s="33">
         <f>IF($D48-SUM($E48:T48)&gt;U$5-SUM(U$7:U47),U$5-SUM(U$7:U47),$D48-SUM($E48:T48))</f>
         <v>0</v>
@@ -5416,7 +5295,7 @@
       <c r="AF48" s="33"/>
       <c r="AG48" s="53"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>42</v>
       </c>
@@ -5462,10 +5341,7 @@
       </c>
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
-      <c r="T49" s="33">
-        <f>IF($D49-SUM($E49:S49)&gt;T$5-SUM(T$7:T48),T$5-SUM(T$7:T48),$D49-SUM($E49:S49))</f>
-        <v>0</v>
-      </c>
+      <c r="T49" s="68"/>
       <c r="U49" s="33">
         <f>IF($D49-SUM($E49:T49)&gt;U$5-SUM(U$7:U48),U$5-SUM(U$7:U48),$D49-SUM($E49:T49))</f>
         <v>0</v>
@@ -5507,7 +5383,7 @@
       <c r="AF49" s="33"/>
       <c r="AG49" s="53"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>43</v>
       </c>
@@ -5553,10 +5429,7 @@
       </c>
       <c r="R50" s="33"/>
       <c r="S50" s="33"/>
-      <c r="T50" s="33">
-        <f>IF($D50-SUM($E50:S50)&gt;T$5-SUM(T$7:T49),T$5-SUM(T$7:T49),$D50-SUM($E50:S50))</f>
-        <v>0</v>
-      </c>
+      <c r="T50" s="68"/>
       <c r="U50" s="33">
         <f>IF($D50-SUM($E50:T50)&gt;U$5-SUM(U$7:U49),U$5-SUM(U$7:U49),$D50-SUM($E50:T50))</f>
         <v>0</v>
@@ -5598,7 +5471,7 @@
       <c r="AF50" s="33"/>
       <c r="AG50" s="53"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>44</v>
       </c>
@@ -5644,10 +5517,7 @@
       </c>
       <c r="R51" s="33"/>
       <c r="S51" s="33"/>
-      <c r="T51" s="33">
-        <f>IF($D51-SUM($E51:S51)&gt;T$5-SUM(T$7:T50),T$5-SUM(T$7:T50),$D51-SUM($E51:S51))</f>
-        <v>0</v>
-      </c>
+      <c r="T51" s="68"/>
       <c r="U51" s="33">
         <f>IF($D51-SUM($E51:T51)&gt;U$5-SUM(U$7:U50),U$5-SUM(U$7:U50),$D51-SUM($E51:T51))</f>
         <v>0</v>
@@ -5689,7 +5559,7 @@
       <c r="AF51" s="33"/>
       <c r="AG51" s="53"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>45</v>
       </c>
@@ -5735,10 +5605,7 @@
       </c>
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
-      <c r="T52" s="33">
-        <f>IF($D52-SUM($E52:S52)&gt;T$5-SUM(T$7:T51),T$5-SUM(T$7:T51),$D52-SUM($E52:S52))</f>
-        <v>0</v>
-      </c>
+      <c r="T52" s="68"/>
       <c r="U52" s="33">
         <f>IF($D52-SUM($E52:T52)&gt;U$5-SUM(U$7:U51),U$5-SUM(U$7:U51),$D52-SUM($E52:T52))</f>
         <v>0</v>
@@ -5780,7 +5647,7 @@
       <c r="AF52" s="33"/>
       <c r="AG52" s="53"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>46</v>
       </c>
@@ -5826,10 +5693,7 @@
       </c>
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
-      <c r="T53" s="33">
-        <f>IF($D53-SUM($E53:S53)&gt;T$5-SUM(T$7:T52),T$5-SUM(T$7:T52),$D53-SUM($E53:S53))</f>
-        <v>0</v>
-      </c>
+      <c r="T53" s="68"/>
       <c r="U53" s="33">
         <f>IF($D53-SUM($E53:T53)&gt;U$5-SUM(U$7:U52),U$5-SUM(U$7:U52),$D53-SUM($E53:T53))</f>
         <v>0</v>
@@ -5871,7 +5735,7 @@
       <c r="AF53" s="33"/>
       <c r="AG53" s="53"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>47</v>
       </c>
@@ -5917,10 +5781,7 @@
       </c>
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
-      <c r="T54" s="33">
-        <f>IF($D54-SUM($E54:S54)&gt;T$5-SUM(T$7:T53),T$5-SUM(T$7:T53),$D54-SUM($E54:S54))</f>
-        <v>0</v>
-      </c>
+      <c r="T54" s="68"/>
       <c r="U54" s="33">
         <f>IF($D54-SUM($E54:T54)&gt;U$5-SUM(U$7:U53),U$5-SUM(U$7:U53),$D54-SUM($E54:T54))</f>
         <v>0</v>
@@ -5962,7 +5823,7 @@
       <c r="AF54" s="33"/>
       <c r="AG54" s="53"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>48</v>
       </c>
@@ -6008,10 +5869,7 @@
       </c>
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
-      <c r="T55" s="33">
-        <f>IF($D55-SUM($E55:S55)&gt;T$5-SUM(T$7:T54),T$5-SUM(T$7:T54),$D55-SUM($E55:S55))</f>
-        <v>0</v>
-      </c>
+      <c r="T55" s="68"/>
       <c r="U55" s="33">
         <f>IF($D55-SUM($E55:T55)&gt;U$5-SUM(U$7:U54),U$5-SUM(U$7:U54),$D55-SUM($E55:T55))</f>
         <v>0</v>
@@ -6053,7 +5911,7 @@
       <c r="AF55" s="33"/>
       <c r="AG55" s="53"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>49</v>
       </c>
@@ -6099,10 +5957,7 @@
       </c>
       <c r="R56" s="33"/>
       <c r="S56" s="33"/>
-      <c r="T56" s="33">
-        <f>IF($D56-SUM($E56:S56)&gt;T$5-SUM(T$7:T55),T$5-SUM(T$7:T55),$D56-SUM($E56:S56))</f>
-        <v>0</v>
-      </c>
+      <c r="T56" s="68"/>
       <c r="U56" s="33">
         <f>IF($D56-SUM($E56:T56)&gt;U$5-SUM(U$7:U55),U$5-SUM(U$7:U55),$D56-SUM($E56:T56))</f>
         <v>0</v>
@@ -6144,7 +5999,7 @@
       <c r="AF56" s="33"/>
       <c r="AG56" s="53"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>50</v>
       </c>
@@ -6190,10 +6045,7 @@
       </c>
       <c r="R57" s="33"/>
       <c r="S57" s="33"/>
-      <c r="T57" s="33">
-        <f>IF($D57-SUM($E57:S57)&gt;T$5-SUM(T$7:T56),T$5-SUM(T$7:T56),$D57-SUM($E57:S57))</f>
-        <v>0</v>
-      </c>
+      <c r="T57" s="68"/>
       <c r="U57" s="33">
         <f>IF($D57-SUM($E57:T57)&gt;U$5-SUM(U$7:U56),U$5-SUM(U$7:U56),$D57-SUM($E57:T57))</f>
         <v>0</v>
@@ -6235,7 +6087,7 @@
       <c r="AF57" s="33"/>
       <c r="AG57" s="53"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>51</v>
       </c>
@@ -6281,10 +6133,7 @@
       </c>
       <c r="R58" s="33"/>
       <c r="S58" s="33"/>
-      <c r="T58" s="33">
-        <f>IF($D58-SUM($E58:S58)&gt;T$5-SUM(T$7:T57),T$5-SUM(T$7:T57),$D58-SUM($E58:S58))</f>
-        <v>0</v>
-      </c>
+      <c r="T58" s="68"/>
       <c r="U58" s="33">
         <f>IF($D58-SUM($E58:T58)&gt;U$5-SUM(U$7:U57),U$5-SUM(U$7:U57),$D58-SUM($E58:T58))</f>
         <v>0</v>
@@ -6326,7 +6175,7 @@
       <c r="AF58" s="33"/>
       <c r="AG58" s="53"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>52</v>
       </c>
@@ -6372,10 +6221,7 @@
       </c>
       <c r="R59" s="33"/>
       <c r="S59" s="33"/>
-      <c r="T59" s="33">
-        <f>IF($D59-SUM($E59:S59)&gt;T$5-SUM(T$7:T58),T$5-SUM(T$7:T58),$D59-SUM($E59:S59))</f>
-        <v>0</v>
-      </c>
+      <c r="T59" s="68"/>
       <c r="U59" s="33">
         <f>IF($D59-SUM($E59:T59)&gt;U$5-SUM(U$7:U58),U$5-SUM(U$7:U58),$D59-SUM($E59:T59))</f>
         <v>0</v>
@@ -6417,7 +6263,7 @@
       <c r="AF59" s="33"/>
       <c r="AG59" s="53"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>53</v>
       </c>
@@ -6463,10 +6309,7 @@
       </c>
       <c r="R60" s="33"/>
       <c r="S60" s="33"/>
-      <c r="T60" s="33">
-        <f>IF($D60-SUM($E60:S60)&gt;T$5-SUM(T$7:T59),T$5-SUM(T$7:T59),$D60-SUM($E60:S60))</f>
-        <v>0</v>
-      </c>
+      <c r="T60" s="68"/>
       <c r="U60" s="33">
         <f>IF($D60-SUM($E60:T60)&gt;U$5-SUM(U$7:U59),U$5-SUM(U$7:U59),$D60-SUM($E60:T60))</f>
         <v>0</v>
@@ -6508,7 +6351,7 @@
       <c r="AF60" s="33"/>
       <c r="AG60" s="53"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>54</v>
       </c>
@@ -6554,10 +6397,7 @@
       </c>
       <c r="R61" s="33"/>
       <c r="S61" s="33"/>
-      <c r="T61" s="33">
-        <f>IF($D61-SUM($E61:S61)&gt;T$5-SUM(T$7:T60),T$5-SUM(T$7:T60),$D61-SUM($E61:S61))</f>
-        <v>0</v>
-      </c>
+      <c r="T61" s="68"/>
       <c r="U61" s="33">
         <f>IF($D61-SUM($E61:T61)&gt;U$5-SUM(U$7:U60),U$5-SUM(U$7:U60),$D61-SUM($E61:T61))</f>
         <v>0</v>
@@ -6599,7 +6439,7 @@
       <c r="AF61" s="33"/>
       <c r="AG61" s="53"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>55</v>
       </c>
@@ -6645,10 +6485,7 @@
       </c>
       <c r="R62" s="33"/>
       <c r="S62" s="33"/>
-      <c r="T62" s="33">
-        <f>IF($D62-SUM($E62:S62)&gt;T$5-SUM(T$7:T61),T$5-SUM(T$7:T61),$D62-SUM($E62:S62))</f>
-        <v>0</v>
-      </c>
+      <c r="T62" s="68"/>
       <c r="U62" s="33">
         <f>IF($D62-SUM($E62:T62)&gt;U$5-SUM(U$7:U61),U$5-SUM(U$7:U61),$D62-SUM($E62:T62))</f>
         <v>0</v>
@@ -6690,7 +6527,7 @@
       <c r="AF62" s="33"/>
       <c r="AG62" s="53"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>56</v>
       </c>
@@ -6736,10 +6573,7 @@
       </c>
       <c r="R63" s="33"/>
       <c r="S63" s="33"/>
-      <c r="T63" s="33">
-        <f>IF($D63-SUM($E63:S63)&gt;T$5-SUM(T$7:T62),T$5-SUM(T$7:T62),$D63-SUM($E63:S63))</f>
-        <v>0</v>
-      </c>
+      <c r="T63" s="68"/>
       <c r="U63" s="33">
         <f>IF($D63-SUM($E63:T63)&gt;U$5-SUM(U$7:U62),U$5-SUM(U$7:U62),$D63-SUM($E63:T63))</f>
         <v>0</v>
@@ -6781,7 +6615,7 @@
       <c r="AF63" s="33"/>
       <c r="AG63" s="53"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>57</v>
       </c>
@@ -6827,10 +6661,7 @@
       </c>
       <c r="R64" s="33"/>
       <c r="S64" s="33"/>
-      <c r="T64" s="33">
-        <f>IF($D64-SUM($E64:S64)&gt;T$5-SUM(T$7:T63),T$5-SUM(T$7:T63),$D64-SUM($E64:S64))</f>
-        <v>0</v>
-      </c>
+      <c r="T64" s="68"/>
       <c r="U64" s="33">
         <f>IF($D64-SUM($E64:T64)&gt;U$5-SUM(U$7:U63),U$5-SUM(U$7:U63),$D64-SUM($E64:T64))</f>
         <v>0</v>
@@ -6872,7 +6703,7 @@
       <c r="AF64" s="33"/>
       <c r="AG64" s="53"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>58</v>
       </c>
@@ -6918,10 +6749,7 @@
       </c>
       <c r="R65" s="33"/>
       <c r="S65" s="33"/>
-      <c r="T65" s="33">
-        <f>IF($D65-SUM($E65:S65)&gt;T$5-SUM(T$7:T64),T$5-SUM(T$7:T64),$D65-SUM($E65:S65))</f>
-        <v>0</v>
-      </c>
+      <c r="T65" s="68"/>
       <c r="U65" s="33">
         <f>IF($D65-SUM($E65:T65)&gt;U$5-SUM(U$7:U64),U$5-SUM(U$7:U64),$D65-SUM($E65:T65))</f>
         <v>0</v>
@@ -6963,7 +6791,7 @@
       <c r="AF65" s="33"/>
       <c r="AG65" s="53"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>59</v>
       </c>
@@ -7009,10 +6837,7 @@
       </c>
       <c r="R66" s="33"/>
       <c r="S66" s="33"/>
-      <c r="T66" s="33">
-        <f>IF($D66-SUM($E66:S66)&gt;T$5-SUM(T$7:T65),T$5-SUM(T$7:T65),$D66-SUM($E66:S66))</f>
-        <v>0</v>
-      </c>
+      <c r="T66" s="68"/>
       <c r="U66" s="33">
         <f>IF($D66-SUM($E66:T66)&gt;U$5-SUM(U$7:U65),U$5-SUM(U$7:U65),$D66-SUM($E66:T66))</f>
         <v>0</v>
@@ -7054,7 +6879,7 @@
       <c r="AF66" s="33"/>
       <c r="AG66" s="53"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>60</v>
       </c>
@@ -7100,10 +6925,7 @@
       </c>
       <c r="R67" s="33"/>
       <c r="S67" s="33"/>
-      <c r="T67" s="33">
-        <f>IF($D67-SUM($E67:S67)&gt;T$5-SUM(T$7:T66),T$5-SUM(T$7:T66),$D67-SUM($E67:S67))</f>
-        <v>0</v>
-      </c>
+      <c r="T67" s="68"/>
       <c r="U67" s="33">
         <f>IF($D67-SUM($E67:T67)&gt;U$5-SUM(U$7:U66),U$5-SUM(U$7:U66),$D67-SUM($E67:T67))</f>
         <v>0</v>
@@ -7145,7 +6967,7 @@
       <c r="AF67" s="33"/>
       <c r="AG67" s="53"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>61</v>
       </c>
@@ -7191,10 +7013,7 @@
       </c>
       <c r="R68" s="33"/>
       <c r="S68" s="33"/>
-      <c r="T68" s="33">
-        <f>IF($D68-SUM($E68:S68)&gt;T$5-SUM(T$7:T67),T$5-SUM(T$7:T67),$D68-SUM($E68:S68))</f>
-        <v>0</v>
-      </c>
+      <c r="T68" s="68"/>
       <c r="U68" s="33">
         <f>IF($D68-SUM($E68:T68)&gt;U$5-SUM(U$7:U67),U$5-SUM(U$7:U67),$D68-SUM($E68:T68))</f>
         <v>0</v>
@@ -7236,7 +7055,7 @@
       <c r="AF68" s="33"/>
       <c r="AG68" s="53"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>62</v>
       </c>
@@ -7282,10 +7101,7 @@
       </c>
       <c r="R69" s="33"/>
       <c r="S69" s="33"/>
-      <c r="T69" s="33">
-        <f>IF($D69-SUM($E69:S69)&gt;T$5-SUM(T$7:T68),T$5-SUM(T$7:T68),$D69-SUM($E69:S69))</f>
-        <v>0</v>
-      </c>
+      <c r="T69" s="68"/>
       <c r="U69" s="33">
         <f>IF($D69-SUM($E69:T69)&gt;U$5-SUM(U$7:U68),U$5-SUM(U$7:U68),$D69-SUM($E69:T69))</f>
         <v>0</v>
@@ -7327,7 +7143,7 @@
       <c r="AF69" s="33"/>
       <c r="AG69" s="53"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>63</v>
       </c>
@@ -7373,10 +7189,7 @@
       </c>
       <c r="R70" s="33"/>
       <c r="S70" s="33"/>
-      <c r="T70" s="33">
-        <f>IF($D70-SUM($E70:S70)&gt;T$5-SUM(T$7:T69),T$5-SUM(T$7:T69),$D70-SUM($E70:S70))</f>
-        <v>0</v>
-      </c>
+      <c r="T70" s="68"/>
       <c r="U70" s="33">
         <f>IF($D70-SUM($E70:T70)&gt;U$5-SUM(U$7:U69),U$5-SUM(U$7:U69),$D70-SUM($E70:T70))</f>
         <v>0</v>
@@ -7418,7 +7231,7 @@
       <c r="AF70" s="33"/>
       <c r="AG70" s="53"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>64</v>
       </c>
@@ -7464,10 +7277,7 @@
       </c>
       <c r="R71" s="33"/>
       <c r="S71" s="33"/>
-      <c r="T71" s="33">
-        <f>IF($D71-SUM($E71:S71)&gt;T$5-SUM(T$7:T70),T$5-SUM(T$7:T70),$D71-SUM($E71:S71))</f>
-        <v>0</v>
-      </c>
+      <c r="T71" s="68"/>
       <c r="U71" s="33">
         <f>IF($D71-SUM($E71:T71)&gt;U$5-SUM(U$7:U70),U$5-SUM(U$7:U70),$D71-SUM($E71:T71))</f>
         <v>0</v>
@@ -7509,7 +7319,7 @@
       <c r="AF71" s="33"/>
       <c r="AG71" s="53"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>65</v>
       </c>
@@ -7555,10 +7365,7 @@
       </c>
       <c r="R72" s="33"/>
       <c r="S72" s="33"/>
-      <c r="T72" s="33">
-        <f>IF($D72-SUM($E72:S72)&gt;T$5-SUM(T$7:T71),T$5-SUM(T$7:T71),$D72-SUM($E72:S72))</f>
-        <v>0</v>
-      </c>
+      <c r="T72" s="68"/>
       <c r="U72" s="33">
         <f>IF($D72-SUM($E72:T72)&gt;U$5-SUM(U$7:U71),U$5-SUM(U$7:U71),$D72-SUM($E72:T72))</f>
         <v>0</v>
@@ -7600,7 +7407,7 @@
       <c r="AF72" s="33"/>
       <c r="AG72" s="53"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>66</v>
       </c>
@@ -7646,10 +7453,7 @@
       </c>
       <c r="R73" s="33"/>
       <c r="S73" s="33"/>
-      <c r="T73" s="33">
-        <f>IF($D73-SUM($E73:S73)&gt;T$5-SUM(T$7:T72),T$5-SUM(T$7:T72),$D73-SUM($E73:S73))</f>
-        <v>0</v>
-      </c>
+      <c r="T73" s="68"/>
       <c r="U73" s="33">
         <f>IF($D73-SUM($E73:T73)&gt;U$5-SUM(U$7:U72),U$5-SUM(U$7:U72),$D73-SUM($E73:T73))</f>
         <v>0</v>
@@ -7691,7 +7495,7 @@
       <c r="AF73" s="33"/>
       <c r="AG73" s="53"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>67</v>
       </c>
@@ -7737,10 +7541,7 @@
       </c>
       <c r="R74" s="33"/>
       <c r="S74" s="33"/>
-      <c r="T74" s="33">
-        <f>IF($D74-SUM($E74:S74)&gt;T$5-SUM(T$7:T73),T$5-SUM(T$7:T73),$D74-SUM($E74:S74))</f>
-        <v>0</v>
-      </c>
+      <c r="T74" s="68"/>
       <c r="U74" s="33">
         <f>IF($D74-SUM($E74:T74)&gt;U$5-SUM(U$7:U73),U$5-SUM(U$7:U73),$D74-SUM($E74:T74))</f>
         <v>0</v>
@@ -7782,7 +7583,7 @@
       <c r="AF74" s="33"/>
       <c r="AG74" s="53"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>68</v>
       </c>
@@ -7828,10 +7629,7 @@
       </c>
       <c r="R75" s="33"/>
       <c r="S75" s="33"/>
-      <c r="T75" s="33">
-        <f>IF($D75-SUM($E75:S75)&gt;T$5-SUM(T$7:T74),T$5-SUM(T$7:T74),$D75-SUM($E75:S75))</f>
-        <v>0</v>
-      </c>
+      <c r="T75" s="68"/>
       <c r="U75" s="33">
         <f>IF($D75-SUM($E75:T75)&gt;U$5-SUM(U$7:U74),U$5-SUM(U$7:U74),$D75-SUM($E75:T75))</f>
         <v>0</v>
@@ -7873,7 +7671,7 @@
       <c r="AF75" s="33"/>
       <c r="AG75" s="53"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>69</v>
       </c>
@@ -7919,10 +7717,7 @@
       </c>
       <c r="R76" s="33"/>
       <c r="S76" s="33"/>
-      <c r="T76" s="33">
-        <f>IF($D76-SUM($E76:S76)&gt;T$5-SUM(T$7:T75),T$5-SUM(T$7:T75),$D76-SUM($E76:S76))</f>
-        <v>0</v>
-      </c>
+      <c r="T76" s="68"/>
       <c r="U76" s="33">
         <f>IF($D76-SUM($E76:T76)&gt;U$5-SUM(U$7:U75),U$5-SUM(U$7:U75),$D76-SUM($E76:T76))</f>
         <v>0</v>
@@ -7964,7 +7759,7 @@
       <c r="AF76" s="33"/>
       <c r="AG76" s="53"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>70</v>
       </c>
@@ -8010,10 +7805,7 @@
       </c>
       <c r="R77" s="33"/>
       <c r="S77" s="33"/>
-      <c r="T77" s="33">
-        <f>IF($D77-SUM($E77:S77)&gt;T$5-SUM(T$7:T76),T$5-SUM(T$7:T76),$D77-SUM($E77:S77))</f>
-        <v>0</v>
-      </c>
+      <c r="T77" s="68"/>
       <c r="U77" s="33">
         <f>IF($D77-SUM($E77:T77)&gt;U$5-SUM(U$7:U76),U$5-SUM(U$7:U76),$D77-SUM($E77:T77))</f>
         <v>0</v>
@@ -8055,7 +7847,7 @@
       <c r="AF77" s="33"/>
       <c r="AG77" s="53"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
         <v>71</v>
       </c>
@@ -8101,10 +7893,7 @@
       </c>
       <c r="R78" s="33"/>
       <c r="S78" s="33"/>
-      <c r="T78" s="33">
-        <f>IF($D78-SUM($E78:S78)&gt;T$5-SUM(T$7:T77),T$5-SUM(T$7:T77),$D78-SUM($E78:S78))</f>
-        <v>0</v>
-      </c>
+      <c r="T78" s="68"/>
       <c r="U78" s="33">
         <f>IF($D78-SUM($E78:T78)&gt;U$5-SUM(U$7:U77),U$5-SUM(U$7:U77),$D78-SUM($E78:T78))</f>
         <v>0</v>
@@ -8146,7 +7935,7 @@
       <c r="AF78" s="33"/>
       <c r="AG78" s="53"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
         <v>72</v>
       </c>
@@ -8192,10 +7981,7 @@
       </c>
       <c r="R79" s="33"/>
       <c r="S79" s="33"/>
-      <c r="T79" s="33">
-        <f>IF($D79-SUM($E79:S79)&gt;T$5-SUM(T$7:T78),T$5-SUM(T$7:T78),$D79-SUM($E79:S79))</f>
-        <v>0</v>
-      </c>
+      <c r="T79" s="68"/>
       <c r="U79" s="33">
         <f>IF($D79-SUM($E79:T79)&gt;U$5-SUM(U$7:U78),U$5-SUM(U$7:U78),$D79-SUM($E79:T79))</f>
         <v>0</v>
@@ -8237,7 +8023,7 @@
       <c r="AF79" s="33"/>
       <c r="AG79" s="53"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
         <v>73</v>
       </c>
@@ -8283,10 +8069,7 @@
       </c>
       <c r="R80" s="33"/>
       <c r="S80" s="33"/>
-      <c r="T80" s="33">
-        <f>IF($D80-SUM($E80:S80)&gt;T$5-SUM(T$7:T79),T$5-SUM(T$7:T79),$D80-SUM($E80:S80))</f>
-        <v>0</v>
-      </c>
+      <c r="T80" s="68"/>
       <c r="U80" s="33">
         <f>IF($D80-SUM($E80:T80)&gt;U$5-SUM(U$7:U79),U$5-SUM(U$7:U79),$D80-SUM($E80:T80))</f>
         <v>0</v>
@@ -8328,7 +8111,7 @@
       <c r="AF80" s="33"/>
       <c r="AG80" s="53"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="54">
         <v>74</v>
       </c>
@@ -8374,10 +8157,7 @@
       </c>
       <c r="R81" s="33"/>
       <c r="S81" s="33"/>
-      <c r="T81" s="33">
-        <f>IF($D81-SUM($E81:S81)&gt;T$5-SUM(T$7:T80),T$5-SUM(T$7:T80),$D81-SUM($E81:S81))</f>
-        <v>0</v>
-      </c>
+      <c r="T81" s="68"/>
       <c r="U81" s="33">
         <f>IF($D81-SUM($E81:T81)&gt;U$5-SUM(U$7:U80),U$5-SUM(U$7:U80),$D81-SUM($E81:T81))</f>
         <v>0</v>
@@ -8419,7 +8199,7 @@
       <c r="AF81" s="33"/>
       <c r="AG81" s="53"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="54">
         <v>75</v>
       </c>
@@ -8465,10 +8245,7 @@
       </c>
       <c r="R82" s="33"/>
       <c r="S82" s="33"/>
-      <c r="T82" s="33">
-        <f>IF($D82-SUM($E82:S82)&gt;T$5-SUM(T$7:T81),T$5-SUM(T$7:T81),$D82-SUM($E82:S82))</f>
-        <v>0</v>
-      </c>
+      <c r="T82" s="68"/>
       <c r="U82" s="33">
         <f>IF($D82-SUM($E82:T82)&gt;U$5-SUM(U$7:U81),U$5-SUM(U$7:U81),$D82-SUM($E82:T82))</f>
         <v>0</v>
@@ -8510,7 +8287,7 @@
       <c r="AF82" s="33"/>
       <c r="AG82" s="53"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="54">
         <v>76</v>
       </c>
@@ -8556,10 +8333,7 @@
       </c>
       <c r="R83" s="33"/>
       <c r="S83" s="33"/>
-      <c r="T83" s="33">
-        <f>IF($D83-SUM($E83:S83)&gt;T$5-SUM(T$7:T82),T$5-SUM(T$7:T82),$D83-SUM($E83:S83))</f>
-        <v>0</v>
-      </c>
+      <c r="T83" s="68"/>
       <c r="U83" s="33">
         <f>IF($D83-SUM($E83:T83)&gt;U$5-SUM(U$7:U82),U$5-SUM(U$7:U82),$D83-SUM($E83:T83))</f>
         <v>0</v>
@@ -8601,7 +8375,7 @@
       <c r="AF83" s="33"/>
       <c r="AG83" s="53"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="54">
         <v>77</v>
       </c>
@@ -8647,10 +8421,7 @@
       </c>
       <c r="R84" s="33"/>
       <c r="S84" s="33"/>
-      <c r="T84" s="33">
-        <f>IF($D84-SUM($E84:S84)&gt;T$5-SUM(T$7:T83),T$5-SUM(T$7:T83),$D84-SUM($E84:S84))</f>
-        <v>0</v>
-      </c>
+      <c r="T84" s="68"/>
       <c r="U84" s="33">
         <f>IF($D84-SUM($E84:T84)&gt;U$5-SUM(U$7:U83),U$5-SUM(U$7:U83),$D84-SUM($E84:T84))</f>
         <v>0</v>
@@ -8692,7 +8463,7 @@
       <c r="AF84" s="33"/>
       <c r="AG84" s="53"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="54">
         <v>78</v>
       </c>
@@ -8738,10 +8509,7 @@
       </c>
       <c r="R85" s="33"/>
       <c r="S85" s="33"/>
-      <c r="T85" s="33">
-        <f>IF($D85-SUM($E85:S85)&gt;T$5-SUM(T$7:T84),T$5-SUM(T$7:T84),$D85-SUM($E85:S85))</f>
-        <v>0</v>
-      </c>
+      <c r="T85" s="68"/>
       <c r="U85" s="33">
         <f>IF($D85-SUM($E85:T85)&gt;U$5-SUM(U$7:U84),U$5-SUM(U$7:U84),$D85-SUM($E85:T85))</f>
         <v>0</v>
@@ -8783,7 +8551,7 @@
       <c r="AF85" s="33"/>
       <c r="AG85" s="53"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="54">
         <v>79</v>
       </c>
@@ -8829,10 +8597,7 @@
       </c>
       <c r="R86" s="33"/>
       <c r="S86" s="33"/>
-      <c r="T86" s="33">
-        <f>IF($D86-SUM($E86:S86)&gt;T$5-SUM(T$7:T85),T$5-SUM(T$7:T85),$D86-SUM($E86:S86))</f>
-        <v>0</v>
-      </c>
+      <c r="T86" s="68"/>
       <c r="U86" s="33">
         <f>IF($D86-SUM($E86:T86)&gt;U$5-SUM(U$7:U85),U$5-SUM(U$7:U85),$D86-SUM($E86:T86))</f>
         <v>0</v>
@@ -8874,7 +8639,7 @@
       <c r="AF86" s="33"/>
       <c r="AG86" s="53"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="54">
         <v>80</v>
       </c>
@@ -8920,10 +8685,7 @@
       </c>
       <c r="R87" s="33"/>
       <c r="S87" s="33"/>
-      <c r="T87" s="33">
-        <f>IF($D87-SUM($E87:S87)&gt;T$5-SUM(T$7:T86),T$5-SUM(T$7:T86),$D87-SUM($E87:S87))</f>
-        <v>0</v>
-      </c>
+      <c r="T87" s="68"/>
       <c r="U87" s="33">
         <f>IF($D87-SUM($E87:T87)&gt;U$5-SUM(U$7:U86),U$5-SUM(U$7:U86),$D87-SUM($E87:T87))</f>
         <v>0</v>
@@ -8965,7 +8727,7 @@
       <c r="AF87" s="33"/>
       <c r="AG87" s="53"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="54">
         <v>81</v>
       </c>
@@ -9011,10 +8773,7 @@
       </c>
       <c r="R88" s="33"/>
       <c r="S88" s="33"/>
-      <c r="T88" s="33">
-        <f>IF($D88-SUM($E88:S88)&gt;T$5-SUM(T$7:T87),T$5-SUM(T$7:T87),$D88-SUM($E88:S88))</f>
-        <v>0</v>
-      </c>
+      <c r="T88" s="68"/>
       <c r="U88" s="33">
         <f>IF($D88-SUM($E88:T88)&gt;U$5-SUM(U$7:U87),U$5-SUM(U$7:U87),$D88-SUM($E88:T88))</f>
         <v>0</v>
@@ -9056,7 +8815,7 @@
       <c r="AF88" s="33"/>
       <c r="AG88" s="53"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="54">
         <v>82</v>
       </c>
@@ -9102,10 +8861,7 @@
       </c>
       <c r="R89" s="33"/>
       <c r="S89" s="33"/>
-      <c r="T89" s="33">
-        <f>IF($D89-SUM($E89:S89)&gt;T$5-SUM(T$7:T88),T$5-SUM(T$7:T88),$D89-SUM($E89:S89))</f>
-        <v>0</v>
-      </c>
+      <c r="T89" s="68"/>
       <c r="U89" s="33">
         <f>IF($D89-SUM($E89:T89)&gt;U$5-SUM(U$7:U88),U$5-SUM(U$7:U88),$D89-SUM($E89:T89))</f>
         <v>0</v>
@@ -9147,7 +8903,7 @@
       <c r="AF89" s="33"/>
       <c r="AG89" s="53"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="54">
         <v>83</v>
       </c>
@@ -9193,10 +8949,7 @@
       </c>
       <c r="R90" s="33"/>
       <c r="S90" s="33"/>
-      <c r="T90" s="33">
-        <f>IF($D90-SUM($E90:S90)&gt;T$5-SUM(T$7:T89),T$5-SUM(T$7:T89),$D90-SUM($E90:S90))</f>
-        <v>0</v>
-      </c>
+      <c r="T90" s="68"/>
       <c r="U90" s="33">
         <f>IF($D90-SUM($E90:T90)&gt;U$5-SUM(U$7:U89),U$5-SUM(U$7:U89),$D90-SUM($E90:T90))</f>
         <v>0</v>
@@ -9238,7 +8991,7 @@
       <c r="AF90" s="33"/>
       <c r="AG90" s="53"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="54">
         <v>84</v>
       </c>
@@ -9284,10 +9037,7 @@
       </c>
       <c r="R91" s="33"/>
       <c r="S91" s="33"/>
-      <c r="T91" s="33">
-        <f>IF($D91-SUM($E91:S91)&gt;T$5-SUM(T$7:T90),T$5-SUM(T$7:T90),$D91-SUM($E91:S91))</f>
-        <v>0</v>
-      </c>
+      <c r="T91" s="68"/>
       <c r="U91" s="33">
         <f>IF($D91-SUM($E91:T91)&gt;U$5-SUM(U$7:U90),U$5-SUM(U$7:U90),$D91-SUM($E91:T91))</f>
         <v>0</v>
@@ -9329,7 +9079,7 @@
       <c r="AF91" s="33"/>
       <c r="AG91" s="53"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="54">
         <v>85</v>
       </c>
@@ -9375,10 +9125,7 @@
       </c>
       <c r="R92" s="33"/>
       <c r="S92" s="33"/>
-      <c r="T92" s="33">
-        <f>IF($D92-SUM($E92:S92)&gt;T$5-SUM(T$7:T91),T$5-SUM(T$7:T91),$D92-SUM($E92:S92))</f>
-        <v>0</v>
-      </c>
+      <c r="T92" s="68"/>
       <c r="U92" s="33">
         <f>IF($D92-SUM($E92:T92)&gt;U$5-SUM(U$7:U91),U$5-SUM(U$7:U91),$D92-SUM($E92:T92))</f>
         <v>0</v>
@@ -9420,7 +9167,7 @@
       <c r="AF92" s="33"/>
       <c r="AG92" s="53"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="54">
         <v>86</v>
       </c>
@@ -9466,10 +9213,7 @@
       </c>
       <c r="R93" s="33"/>
       <c r="S93" s="33"/>
-      <c r="T93" s="33">
-        <f>IF($D93-SUM($E93:S93)&gt;T$5-SUM(T$7:T92),T$5-SUM(T$7:T92),$D93-SUM($E93:S93))</f>
-        <v>0</v>
-      </c>
+      <c r="T93" s="68"/>
       <c r="U93" s="33">
         <f>IF($D93-SUM($E93:T93)&gt;U$5-SUM(U$7:U92),U$5-SUM(U$7:U92),$D93-SUM($E93:T93))</f>
         <v>0</v>
@@ -9511,7 +9255,7 @@
       <c r="AF93" s="33"/>
       <c r="AG93" s="53"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="54">
         <v>87</v>
       </c>
@@ -9557,10 +9301,7 @@
       </c>
       <c r="R94" s="33"/>
       <c r="S94" s="33"/>
-      <c r="T94" s="33">
-        <f>IF($D94-SUM($E94:S94)&gt;T$5-SUM(T$7:T93),T$5-SUM(T$7:T93),$D94-SUM($E94:S94))</f>
-        <v>0</v>
-      </c>
+      <c r="T94" s="68"/>
       <c r="U94" s="33">
         <f>IF($D94-SUM($E94:T94)&gt;U$5-SUM(U$7:U93),U$5-SUM(U$7:U93),$D94-SUM($E94:T94))</f>
         <v>0</v>
@@ -9602,7 +9343,7 @@
       <c r="AF94" s="33"/>
       <c r="AG94" s="53"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="54">
         <v>88</v>
       </c>
@@ -9648,10 +9389,7 @@
       </c>
       <c r="R95" s="33"/>
       <c r="S95" s="33"/>
-      <c r="T95" s="33">
-        <f>IF($D95-SUM($E95:S95)&gt;T$5-SUM(T$7:T94),T$5-SUM(T$7:T94),$D95-SUM($E95:S95))</f>
-        <v>0</v>
-      </c>
+      <c r="T95" s="68"/>
       <c r="U95" s="33">
         <f>IF($D95-SUM($E95:T95)&gt;U$5-SUM(U$7:U94),U$5-SUM(U$7:U94),$D95-SUM($E95:T95))</f>
         <v>0</v>
@@ -9693,7 +9431,7 @@
       <c r="AF95" s="33"/>
       <c r="AG95" s="53"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="54">
         <v>89</v>
       </c>
@@ -9739,10 +9477,7 @@
       </c>
       <c r="R96" s="33"/>
       <c r="S96" s="33"/>
-      <c r="T96" s="33">
-        <f>IF($D96-SUM($E96:S96)&gt;T$5-SUM(T$7:T95),T$5-SUM(T$7:T95),$D96-SUM($E96:S96))</f>
-        <v>0</v>
-      </c>
+      <c r="T96" s="68"/>
       <c r="U96" s="33">
         <f>IF($D96-SUM($E96:T96)&gt;U$5-SUM(U$7:U95),U$5-SUM(U$7:U95),$D96-SUM($E96:T96))</f>
         <v>0</v>
@@ -9784,7 +9519,7 @@
       <c r="AF96" s="33"/>
       <c r="AG96" s="53"/>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="54">
         <v>90</v>
       </c>
@@ -9830,10 +9565,7 @@
       </c>
       <c r="R97" s="33"/>
       <c r="S97" s="33"/>
-      <c r="T97" s="33">
-        <f>IF($D97-SUM($E97:S97)&gt;T$5-SUM(T$7:T96),T$5-SUM(T$7:T96),$D97-SUM($E97:S97))</f>
-        <v>0</v>
-      </c>
+      <c r="T97" s="68"/>
       <c r="U97" s="33">
         <f>IF($D97-SUM($E97:T97)&gt;U$5-SUM(U$7:U96),U$5-SUM(U$7:U96),$D97-SUM($E97:T97))</f>
         <v>0</v>
@@ -9875,7 +9607,7 @@
       <c r="AF97" s="33"/>
       <c r="AG97" s="53"/>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="54">
         <v>91</v>
       </c>
@@ -9921,10 +9653,7 @@
       </c>
       <c r="R98" s="33"/>
       <c r="S98" s="33"/>
-      <c r="T98" s="33">
-        <f>IF($D98-SUM($E98:S98)&gt;T$5-SUM(T$7:T97),T$5-SUM(T$7:T97),$D98-SUM($E98:S98))</f>
-        <v>0</v>
-      </c>
+      <c r="T98" s="68"/>
       <c r="U98" s="33">
         <f>IF($D98-SUM($E98:T98)&gt;U$5-SUM(U$7:U97),U$5-SUM(U$7:U97),$D98-SUM($E98:T98))</f>
         <v>0</v>
@@ -9966,7 +9695,7 @@
       <c r="AF98" s="33"/>
       <c r="AG98" s="53"/>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" s="54">
         <v>92</v>
       </c>
@@ -10012,10 +9741,7 @@
       </c>
       <c r="R99" s="33"/>
       <c r="S99" s="33"/>
-      <c r="T99" s="33">
-        <f>IF($D99-SUM($E99:S99)&gt;T$5-SUM(T$7:T98),T$5-SUM(T$7:T98),$D99-SUM($E99:S99))</f>
-        <v>0</v>
-      </c>
+      <c r="T99" s="68"/>
       <c r="U99" s="33">
         <f>IF($D99-SUM($E99:T99)&gt;U$5-SUM(U$7:U98),U$5-SUM(U$7:U98),$D99-SUM($E99:T99))</f>
         <v>0</v>
@@ -10057,7 +9783,7 @@
       <c r="AF99" s="33"/>
       <c r="AG99" s="53"/>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="54">
         <v>93</v>
       </c>
@@ -10103,10 +9829,7 @@
       </c>
       <c r="R100" s="33"/>
       <c r="S100" s="33"/>
-      <c r="T100" s="33">
-        <f>IF($D100-SUM($E100:S100)&gt;T$5-SUM(T$7:T99),T$5-SUM(T$7:T99),$D100-SUM($E100:S100))</f>
-        <v>0</v>
-      </c>
+      <c r="T100" s="68"/>
       <c r="U100" s="33">
         <f>IF($D100-SUM($E100:T100)&gt;U$5-SUM(U$7:U99),U$5-SUM(U$7:U99),$D100-SUM($E100:T100))</f>
         <v>0</v>
@@ -10148,7 +9871,7 @@
       <c r="AF100" s="33"/>
       <c r="AG100" s="53"/>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="54">
         <v>94</v>
       </c>
@@ -10194,10 +9917,7 @@
       </c>
       <c r="R101" s="33"/>
       <c r="S101" s="33"/>
-      <c r="T101" s="33">
-        <f>IF($D101-SUM($E101:S101)&gt;T$5-SUM(T$7:T100),T$5-SUM(T$7:T100),$D101-SUM($E101:S101))</f>
-        <v>0</v>
-      </c>
+      <c r="T101" s="68"/>
       <c r="U101" s="33">
         <f>IF($D101-SUM($E101:T101)&gt;U$5-SUM(U$7:U100),U$5-SUM(U$7:U100),$D101-SUM($E101:T101))</f>
         <v>0</v>
@@ -10239,7 +9959,7 @@
       <c r="AF101" s="33"/>
       <c r="AG101" s="53"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="54">
         <v>95</v>
       </c>
@@ -10285,10 +10005,7 @@
       </c>
       <c r="R102" s="33"/>
       <c r="S102" s="33"/>
-      <c r="T102" s="33">
-        <f>IF($D102-SUM($E102:S102)&gt;T$5-SUM(T$7:T101),T$5-SUM(T$7:T101),$D102-SUM($E102:S102))</f>
-        <v>0</v>
-      </c>
+      <c r="T102" s="68"/>
       <c r="U102" s="33">
         <f>IF($D102-SUM($E102:T102)&gt;U$5-SUM(U$7:U101),U$5-SUM(U$7:U101),$D102-SUM($E102:T102))</f>
         <v>0</v>
@@ -10330,7 +10047,7 @@
       <c r="AF102" s="33"/>
       <c r="AG102" s="53"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="54">
         <v>96</v>
       </c>
@@ -10376,10 +10093,7 @@
       </c>
       <c r="R103" s="33"/>
       <c r="S103" s="33"/>
-      <c r="T103" s="33">
-        <f>IF($D103-SUM($E103:S103)&gt;T$5-SUM(T$7:T102),T$5-SUM(T$7:T102),$D103-SUM($E103:S103))</f>
-        <v>0</v>
-      </c>
+      <c r="T103" s="68"/>
       <c r="U103" s="33">
         <f>IF($D103-SUM($E103:T103)&gt;U$5-SUM(U$7:U102),U$5-SUM(U$7:U102),$D103-SUM($E103:T103))</f>
         <v>0</v>
@@ -10421,7 +10135,7 @@
       <c r="AF103" s="33"/>
       <c r="AG103" s="53"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="54">
         <v>97</v>
       </c>
@@ -10467,10 +10181,7 @@
       </c>
       <c r="R104" s="33"/>
       <c r="S104" s="33"/>
-      <c r="T104" s="33">
-        <f>IF($D104-SUM($E104:S104)&gt;T$5-SUM(T$7:T103),T$5-SUM(T$7:T103),$D104-SUM($E104:S104))</f>
-        <v>0</v>
-      </c>
+      <c r="T104" s="68"/>
       <c r="U104" s="33">
         <f>IF($D104-SUM($E104:T104)&gt;U$5-SUM(U$7:U103),U$5-SUM(U$7:U103),$D104-SUM($E104:T104))</f>
         <v>0</v>
@@ -10512,7 +10223,7 @@
       <c r="AF104" s="33"/>
       <c r="AG104" s="53"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="54">
         <v>98</v>
       </c>
@@ -10558,10 +10269,7 @@
       </c>
       <c r="R105" s="33"/>
       <c r="S105" s="33"/>
-      <c r="T105" s="33">
-        <f>IF($D105-SUM($E105:S105)&gt;T$5-SUM(T$7:T104),T$5-SUM(T$7:T104),$D105-SUM($E105:S105))</f>
-        <v>0</v>
-      </c>
+      <c r="T105" s="68"/>
       <c r="U105" s="33">
         <f>IF($D105-SUM($E105:T105)&gt;U$5-SUM(U$7:U104),U$5-SUM(U$7:U104),$D105-SUM($E105:T105))</f>
         <v>0</v>
@@ -10603,7 +10311,7 @@
       <c r="AF105" s="33"/>
       <c r="AG105" s="53"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="54">
         <v>99</v>
       </c>
@@ -10649,10 +10357,7 @@
       </c>
       <c r="R106" s="33"/>
       <c r="S106" s="33"/>
-      <c r="T106" s="33">
-        <f>IF($D106-SUM($E106:S106)&gt;T$5-SUM(T$7:T105),T$5-SUM(T$7:T105),$D106-SUM($E106:S106))</f>
-        <v>0</v>
-      </c>
+      <c r="T106" s="68"/>
       <c r="U106" s="33">
         <f>IF($D106-SUM($E106:T106)&gt;U$5-SUM(U$7:U105),U$5-SUM(U$7:U105),$D106-SUM($E106:T106))</f>
         <v>0</v>
@@ -10694,7 +10399,7 @@
       <c r="AF106" s="33"/>
       <c r="AG106" s="53"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="55">
         <v>100</v>
       </c>
@@ -10740,10 +10445,7 @@
       </c>
       <c r="R107" s="60"/>
       <c r="S107" s="60"/>
-      <c r="T107" s="60">
-        <f>IF($D107-SUM($E107:S107)&gt;T$5-SUM(T$7:T106),T$5-SUM(T$7:T106),$D107-SUM($E107:S107))</f>
-        <v>0</v>
-      </c>
+      <c r="T107" s="69"/>
       <c r="U107" s="60">
         <f>IF($D107-SUM($E107:T107)&gt;U$5-SUM(U$7:U106),U$5-SUM(U$7:U106),$D107-SUM($E107:T107))</f>
         <v>0</v>
@@ -10875,26 +10577,26 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="71"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
@@ -10902,7 +10604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -10910,15 +10612,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -10926,7 +10628,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -10934,7 +10636,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -10959,6 +10661,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11233,30 +10958,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11274,24 +10996,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Strokenplanning.xlsx
+++ b/Documentatie/Strokenplanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D85029-C3D9-49B4-9192-8E7B9828954F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79046B62-BB01-49F8-8D1C-45221C8EC83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>NB: lees alle 6 tooltips/notes (hover over cellen met rood driehoekje).</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>Functioneel Ontwerp</t>
+  </si>
+  <si>
+    <t>Configuratie overzicht</t>
+  </si>
+  <si>
+    <t>Testplan</t>
+  </si>
+  <si>
+    <t>Acceptatie test</t>
+  </si>
+  <si>
+    <t>Evaluatie document</t>
+  </si>
+  <si>
+    <t>Onderhouds document</t>
+  </si>
+  <si>
+    <t>Kwaliteits handboek</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1493,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,8 +2156,12 @@
       <c r="R12" s="33"/>
       <c r="S12" s="33"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
+      <c r="U12" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="V12" s="33">
+        <v>1.5</v>
+      </c>
       <c r="W12" s="33"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
@@ -2156,7 +2178,9 @@
       <c r="A13" s="54">
         <v>6</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
       <c r="E13" s="29"/>
@@ -2199,9 +2223,7 @@
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="33">
-        <v>3.5</v>
-      </c>
+      <c r="U13" s="33"/>
       <c r="V13" s="33"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
@@ -2219,7 +2241,9 @@
       <c r="A14" s="54">
         <v>7</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
       <c r="E14" s="29"/>
@@ -2262,18 +2286,9 @@
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="33">
-        <f>IF($D14-SUM($E14:T14)&gt;U$5-SUM(U$7:U13),U$5-SUM(U$7:U13),$D14-SUM($E14:T14))</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="33">
-        <f>IF($D14-SUM($E14:U14)&gt;V$5-SUM(V$7:V13),V$5-SUM(V$7:V13),$D14-SUM($E14:U14))</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="33">
-        <f>IF($D14-SUM($E14:V14)&gt;W$5-SUM(W$7:W13),W$5-SUM(W$7:W13),$D14-SUM($E14:V14))</f>
-        <v>0</v>
-      </c>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
       <c r="X14" s="33">
         <f>IF($D14-SUM($E14:W14)&gt;X$5-SUM(X$7:X13),X$5-SUM(X$7:X13),$D14-SUM($E14:W14))</f>
         <v>0</v>
@@ -2307,7 +2322,9 @@
       <c r="A15" s="54">
         <v>8</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="29"/>
@@ -2395,7 +2412,9 @@
       <c r="A16" s="54">
         <v>9</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="29"/>
@@ -2483,7 +2502,9 @@
       <c r="A17" s="54">
         <v>10</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="29"/>
@@ -2571,7 +2592,9 @@
       <c r="A18" s="54">
         <v>11</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="29"/>
@@ -10661,29 +10684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10958,27 +10958,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10996,4 +10999,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/Strokenplanning.xlsx
+++ b/Documentatie/Strokenplanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79046B62-BB01-49F8-8D1C-45221C8EC83D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F8A05-CCD1-401C-8D10-6512A339F279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,7 +1493,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2162,9 @@
       <c r="V12" s="33">
         <v>1.5</v>
       </c>
-      <c r="W12" s="33"/>
+      <c r="W12" s="33">
+        <v>2.5</v>
+      </c>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
@@ -2225,7 +2227,9 @@
       <c r="T13" s="68"/>
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
+      <c r="W13" s="33">
+        <v>1</v>
+      </c>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
@@ -2375,14 +2379,8 @@
         <f>IF($D15-SUM($E15:U15)&gt;V$5-SUM(V$7:V14),V$5-SUM(V$7:V14),$D15-SUM($E15:U15))</f>
         <v>0</v>
       </c>
-      <c r="W15" s="33">
-        <f>IF($D15-SUM($E15:V15)&gt;W$5-SUM(W$7:W14),W$5-SUM(W$7:W14),$D15-SUM($E15:V15))</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="33">
-        <f>IF($D15-SUM($E15:W15)&gt;X$5-SUM(X$7:X14),X$5-SUM(X$7:X14),$D15-SUM($E15:W15))</f>
-        <v>0</v>
-      </c>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33">
@@ -2461,18 +2459,9 @@
         <f>IF($D16-SUM($E16:T16)&gt;U$5-SUM(U$7:U15),U$5-SUM(U$7:U15),$D16-SUM($E16:T16))</f>
         <v>0</v>
       </c>
-      <c r="V16" s="33">
-        <f>IF($D16-SUM($E16:U16)&gt;V$5-SUM(V$7:V15),V$5-SUM(V$7:V15),$D16-SUM($E16:U16))</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="33">
-        <f>IF($D16-SUM($E16:V16)&gt;W$5-SUM(W$7:W15),W$5-SUM(W$7:W15),$D16-SUM($E16:V16))</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="33">
-        <f>IF($D16-SUM($E16:W16)&gt;X$5-SUM(X$7:X15),X$5-SUM(X$7:X15),$D16-SUM($E16:W16))</f>
-        <v>0</v>
-      </c>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33">
@@ -2551,18 +2540,9 @@
         <f>IF($D17-SUM($E17:T17)&gt;U$5-SUM(U$7:U16),U$5-SUM(U$7:U16),$D17-SUM($E17:T17))</f>
         <v>0</v>
       </c>
-      <c r="V17" s="33">
-        <f>IF($D17-SUM($E17:U17)&gt;V$5-SUM(V$7:V16),V$5-SUM(V$7:V16),$D17-SUM($E17:U17))</f>
-        <v>0</v>
-      </c>
-      <c r="W17" s="33">
-        <f>IF($D17-SUM($E17:V17)&gt;W$5-SUM(W$7:W16),W$5-SUM(W$7:W16),$D17-SUM($E17:V17))</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="33">
-        <f>IF($D17-SUM($E17:W17)&gt;X$5-SUM(X$7:X16),X$5-SUM(X$7:X16),$D17-SUM($E17:W17))</f>
-        <v>0</v>
-      </c>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="33">
@@ -2641,18 +2621,9 @@
         <f>IF($D18-SUM($E18:T18)&gt;U$5-SUM(U$7:U17),U$5-SUM(U$7:U17),$D18-SUM($E18:T18))</f>
         <v>0</v>
       </c>
-      <c r="V18" s="33">
-        <f>IF($D18-SUM($E18:U18)&gt;V$5-SUM(V$7:V17),V$5-SUM(V$7:V17),$D18-SUM($E18:U18))</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="33">
-        <f>IF($D18-SUM($E18:V18)&gt;W$5-SUM(W$7:W17),W$5-SUM(W$7:W17),$D18-SUM($E18:V18))</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="33">
-        <f>IF($D18-SUM($E18:W18)&gt;X$5-SUM(X$7:X17),X$5-SUM(X$7:X17),$D18-SUM($E18:W18))</f>
-        <v>0</v>
-      </c>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="33">
@@ -2729,18 +2700,9 @@
         <f>IF($D19-SUM($E19:T19)&gt;U$5-SUM(U$7:U18),U$5-SUM(U$7:U18),$D19-SUM($E19:T19))</f>
         <v>0</v>
       </c>
-      <c r="V19" s="33">
-        <f>IF($D19-SUM($E19:U19)&gt;V$5-SUM(V$7:V18),V$5-SUM(V$7:V18),$D19-SUM($E19:U19))</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="33">
-        <f>IF($D19-SUM($E19:V19)&gt;W$5-SUM(W$7:W18),W$5-SUM(W$7:W18),$D19-SUM($E19:V19))</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="33">
-        <f>IF($D19-SUM($E19:W19)&gt;X$5-SUM(X$7:X18),X$5-SUM(X$7:X18),$D19-SUM($E19:W19))</f>
-        <v>0</v>
-      </c>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33">
@@ -2817,18 +2779,9 @@
         <f>IF($D20-SUM($E20:T20)&gt;U$5-SUM(U$7:U19),U$5-SUM(U$7:U19),$D20-SUM($E20:T20))</f>
         <v>0</v>
       </c>
-      <c r="V20" s="33">
-        <f>IF($D20-SUM($E20:U20)&gt;V$5-SUM(V$7:V19),V$5-SUM(V$7:V19),$D20-SUM($E20:U20))</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="33">
-        <f>IF($D20-SUM($E20:V20)&gt;W$5-SUM(W$7:W19),W$5-SUM(W$7:W19),$D20-SUM($E20:V20))</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="33">
-        <f>IF($D20-SUM($E20:W20)&gt;X$5-SUM(X$7:X19),X$5-SUM(X$7:X19),$D20-SUM($E20:W20))</f>
-        <v>0</v>
-      </c>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="33">
@@ -2905,18 +2858,9 @@
         <f>IF($D21-SUM($E21:T21)&gt;U$5-SUM(U$7:U20),U$5-SUM(U$7:U20),$D21-SUM($E21:T21))</f>
         <v>0</v>
       </c>
-      <c r="V21" s="33">
-        <f>IF($D21-SUM($E21:U21)&gt;V$5-SUM(V$7:V20),V$5-SUM(V$7:V20),$D21-SUM($E21:U21))</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="33">
-        <f>IF($D21-SUM($E21:V21)&gt;W$5-SUM(W$7:W20),W$5-SUM(W$7:W20),$D21-SUM($E21:V21))</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="33">
-        <f>IF($D21-SUM($E21:W21)&gt;X$5-SUM(X$7:X20),X$5-SUM(X$7:X20),$D21-SUM($E21:W21))</f>
-        <v>0</v>
-      </c>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
       <c r="AA21" s="33">
@@ -2993,18 +2937,9 @@
         <f>IF($D22-SUM($E22:T22)&gt;U$5-SUM(U$7:U21),U$5-SUM(U$7:U21),$D22-SUM($E22:T22))</f>
         <v>0</v>
       </c>
-      <c r="V22" s="33">
-        <f>IF($D22-SUM($E22:U22)&gt;V$5-SUM(V$7:V21),V$5-SUM(V$7:V21),$D22-SUM($E22:U22))</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="33">
-        <f>IF($D22-SUM($E22:V22)&gt;W$5-SUM(W$7:W21),W$5-SUM(W$7:W21),$D22-SUM($E22:V22))</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="33">
-        <f>IF($D22-SUM($E22:W22)&gt;X$5-SUM(X$7:X21),X$5-SUM(X$7:X21),$D22-SUM($E22:W22))</f>
-        <v>0</v>
-      </c>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
       <c r="AA22" s="33">
@@ -3081,18 +3016,9 @@
         <f>IF($D23-SUM($E23:T23)&gt;U$5-SUM(U$7:U22),U$5-SUM(U$7:U22),$D23-SUM($E23:T23))</f>
         <v>0</v>
       </c>
-      <c r="V23" s="33">
-        <f>IF($D23-SUM($E23:U23)&gt;V$5-SUM(V$7:V22),V$5-SUM(V$7:V22),$D23-SUM($E23:U23))</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="33">
-        <f>IF($D23-SUM($E23:V23)&gt;W$5-SUM(W$7:W22),W$5-SUM(W$7:W22),$D23-SUM($E23:V23))</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="33">
-        <f>IF($D23-SUM($E23:W23)&gt;X$5-SUM(X$7:X22),X$5-SUM(X$7:X22),$D23-SUM($E23:W23))</f>
-        <v>0</v>
-      </c>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
       <c r="AA23" s="33">
@@ -3169,18 +3095,9 @@
         <f>IF($D24-SUM($E24:T24)&gt;U$5-SUM(U$7:U23),U$5-SUM(U$7:U23),$D24-SUM($E24:T24))</f>
         <v>0</v>
       </c>
-      <c r="V24" s="33">
-        <f>IF($D24-SUM($E24:U24)&gt;V$5-SUM(V$7:V23),V$5-SUM(V$7:V23),$D24-SUM($E24:U24))</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="33">
-        <f>IF($D24-SUM($E24:V24)&gt;W$5-SUM(W$7:W23),W$5-SUM(W$7:W23),$D24-SUM($E24:V24))</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="33">
-        <f>IF($D24-SUM($E24:W24)&gt;X$5-SUM(X$7:X23),X$5-SUM(X$7:X23),$D24-SUM($E24:W24))</f>
-        <v>0</v>
-      </c>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
       <c r="AA24" s="33">
@@ -3261,14 +3178,8 @@
         <f>IF($D25-SUM($E25:U25)&gt;V$5-SUM(V$7:V24),V$5-SUM(V$7:V24),$D25-SUM($E25:U25))</f>
         <v>0</v>
       </c>
-      <c r="W25" s="33">
-        <f>IF($D25-SUM($E25:V25)&gt;W$5-SUM(W$7:W24),W$5-SUM(W$7:W24),$D25-SUM($E25:V25))</f>
-        <v>0</v>
-      </c>
-      <c r="X25" s="33">
-        <f>IF($D25-SUM($E25:W25)&gt;X$5-SUM(X$7:X24),X$5-SUM(X$7:X24),$D25-SUM($E25:W25))</f>
-        <v>0</v>
-      </c>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
       <c r="AA25" s="33">
@@ -3349,14 +3260,8 @@
         <f>IF($D26-SUM($E26:U26)&gt;V$5-SUM(V$7:V25),V$5-SUM(V$7:V25),$D26-SUM($E26:U26))</f>
         <v>0</v>
       </c>
-      <c r="W26" s="33">
-        <f>IF($D26-SUM($E26:V26)&gt;W$5-SUM(W$7:W25),W$5-SUM(W$7:W25),$D26-SUM($E26:V26))</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="33">
-        <f>IF($D26-SUM($E26:W26)&gt;X$5-SUM(X$7:X25),X$5-SUM(X$7:X25),$D26-SUM($E26:W26))</f>
-        <v>0</v>
-      </c>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
       <c r="AA26" s="33">
@@ -3437,14 +3342,8 @@
         <f>IF($D27-SUM($E27:U27)&gt;V$5-SUM(V$7:V26),V$5-SUM(V$7:V26),$D27-SUM($E27:U27))</f>
         <v>0</v>
       </c>
-      <c r="W27" s="33">
-        <f>IF($D27-SUM($E27:V27)&gt;W$5-SUM(W$7:W26),W$5-SUM(W$7:W26),$D27-SUM($E27:V27))</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="33">
-        <f>IF($D27-SUM($E27:W27)&gt;X$5-SUM(X$7:X26),X$5-SUM(X$7:X26),$D27-SUM($E27:W27))</f>
-        <v>0</v>
-      </c>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
       <c r="AA27" s="33">
@@ -3525,14 +3424,8 @@
         <f>IF($D28-SUM($E28:U28)&gt;V$5-SUM(V$7:V27),V$5-SUM(V$7:V27),$D28-SUM($E28:U28))</f>
         <v>0</v>
       </c>
-      <c r="W28" s="33">
-        <f>IF($D28-SUM($E28:V28)&gt;W$5-SUM(W$7:W27),W$5-SUM(W$7:W27),$D28-SUM($E28:V28))</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="33">
-        <f>IF($D28-SUM($E28:W28)&gt;X$5-SUM(X$7:X27),X$5-SUM(X$7:X27),$D28-SUM($E28:W28))</f>
-        <v>0</v>
-      </c>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
       <c r="AA28" s="33">
@@ -3613,14 +3506,8 @@
         <f>IF($D29-SUM($E29:U29)&gt;V$5-SUM(V$7:V28),V$5-SUM(V$7:V28),$D29-SUM($E29:U29))</f>
         <v>0</v>
       </c>
-      <c r="W29" s="33">
-        <f>IF($D29-SUM($E29:V29)&gt;W$5-SUM(W$7:W28),W$5-SUM(W$7:W28),$D29-SUM($E29:V29))</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="33">
-        <f>IF($D29-SUM($E29:W29)&gt;X$5-SUM(X$7:X28),X$5-SUM(X$7:X28),$D29-SUM($E29:W29))</f>
-        <v>0</v>
-      </c>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="33">
@@ -3701,14 +3588,8 @@
         <f>IF($D30-SUM($E30:U30)&gt;V$5-SUM(V$7:V29),V$5-SUM(V$7:V29),$D30-SUM($E30:U30))</f>
         <v>0</v>
       </c>
-      <c r="W30" s="33">
-        <f>IF($D30-SUM($E30:V30)&gt;W$5-SUM(W$7:W29),W$5-SUM(W$7:W29),$D30-SUM($E30:V30))</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="33">
-        <f>IF($D30-SUM($E30:W30)&gt;X$5-SUM(X$7:X29),X$5-SUM(X$7:X29),$D30-SUM($E30:W30))</f>
-        <v>0</v>
-      </c>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
       <c r="AA30" s="33">
@@ -3789,14 +3670,8 @@
         <f>IF($D31-SUM($E31:U31)&gt;V$5-SUM(V$7:V30),V$5-SUM(V$7:V30),$D31-SUM($E31:U31))</f>
         <v>0</v>
       </c>
-      <c r="W31" s="33">
-        <f>IF($D31-SUM($E31:V31)&gt;W$5-SUM(W$7:W30),W$5-SUM(W$7:W30),$D31-SUM($E31:V31))</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="33">
-        <f>IF($D31-SUM($E31:W31)&gt;X$5-SUM(X$7:X30),X$5-SUM(X$7:X30),$D31-SUM($E31:W31))</f>
-        <v>0</v>
-      </c>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
       <c r="AA31" s="33">
@@ -3877,14 +3752,8 @@
         <f>IF($D32-SUM($E32:U32)&gt;V$5-SUM(V$7:V31),V$5-SUM(V$7:V31),$D32-SUM($E32:U32))</f>
         <v>0</v>
       </c>
-      <c r="W32" s="33">
-        <f>IF($D32-SUM($E32:V32)&gt;W$5-SUM(W$7:W31),W$5-SUM(W$7:W31),$D32-SUM($E32:V32))</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="33">
-        <f>IF($D32-SUM($E32:W32)&gt;X$5-SUM(X$7:X31),X$5-SUM(X$7:X31),$D32-SUM($E32:W32))</f>
-        <v>0</v>
-      </c>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
       <c r="AA32" s="33">
@@ -3965,14 +3834,8 @@
         <f>IF($D33-SUM($E33:U33)&gt;V$5-SUM(V$7:V32),V$5-SUM(V$7:V32),$D33-SUM($E33:U33))</f>
         <v>0</v>
       </c>
-      <c r="W33" s="33">
-        <f>IF($D33-SUM($E33:V33)&gt;W$5-SUM(W$7:W32),W$5-SUM(W$7:W32),$D33-SUM($E33:V33))</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="33">
-        <f>IF($D33-SUM($E33:W33)&gt;X$5-SUM(X$7:X32),X$5-SUM(X$7:X32),$D33-SUM($E33:W33))</f>
-        <v>0</v>
-      </c>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="33">
@@ -4053,14 +3916,8 @@
         <f>IF($D34-SUM($E34:U34)&gt;V$5-SUM(V$7:V33),V$5-SUM(V$7:V33),$D34-SUM($E34:U34))</f>
         <v>0</v>
       </c>
-      <c r="W34" s="33">
-        <f>IF($D34-SUM($E34:V34)&gt;W$5-SUM(W$7:W33),W$5-SUM(W$7:W33),$D34-SUM($E34:V34))</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="33">
-        <f>IF($D34-SUM($E34:W34)&gt;X$5-SUM(X$7:X33),X$5-SUM(X$7:X33),$D34-SUM($E34:W34))</f>
-        <v>0</v>
-      </c>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="33">
@@ -4141,14 +3998,8 @@
         <f>IF($D35-SUM($E35:U35)&gt;V$5-SUM(V$7:V34),V$5-SUM(V$7:V34),$D35-SUM($E35:U35))</f>
         <v>0</v>
       </c>
-      <c r="W35" s="33">
-        <f>IF($D35-SUM($E35:V35)&gt;W$5-SUM(W$7:W34),W$5-SUM(W$7:W34),$D35-SUM($E35:V35))</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="33">
-        <f>IF($D35-SUM($E35:W35)&gt;X$5-SUM(X$7:X34),X$5-SUM(X$7:X34),$D35-SUM($E35:W35))</f>
-        <v>0</v>
-      </c>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="33">
@@ -4229,14 +4080,8 @@
         <f>IF($D36-SUM($E36:U36)&gt;V$5-SUM(V$7:V35),V$5-SUM(V$7:V35),$D36-SUM($E36:U36))</f>
         <v>0</v>
       </c>
-      <c r="W36" s="33">
-        <f>IF($D36-SUM($E36:V36)&gt;W$5-SUM(W$7:W35),W$5-SUM(W$7:W35),$D36-SUM($E36:V36))</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="33">
-        <f>IF($D36-SUM($E36:W36)&gt;X$5-SUM(X$7:X35),X$5-SUM(X$7:X35),$D36-SUM($E36:W36))</f>
-        <v>0</v>
-      </c>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="33">
@@ -4317,14 +4162,8 @@
         <f>IF($D37-SUM($E37:U37)&gt;V$5-SUM(V$7:V36),V$5-SUM(V$7:V36),$D37-SUM($E37:U37))</f>
         <v>0</v>
       </c>
-      <c r="W37" s="33">
-        <f>IF($D37-SUM($E37:V37)&gt;W$5-SUM(W$7:W36),W$5-SUM(W$7:W36),$D37-SUM($E37:V37))</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="33">
-        <f>IF($D37-SUM($E37:W37)&gt;X$5-SUM(X$7:X36),X$5-SUM(X$7:X36),$D37-SUM($E37:W37))</f>
-        <v>0</v>
-      </c>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="33">
@@ -4405,14 +4244,8 @@
         <f>IF($D38-SUM($E38:U38)&gt;V$5-SUM(V$7:V37),V$5-SUM(V$7:V37),$D38-SUM($E38:U38))</f>
         <v>0</v>
       </c>
-      <c r="W38" s="33">
-        <f>IF($D38-SUM($E38:V38)&gt;W$5-SUM(W$7:W37),W$5-SUM(W$7:W37),$D38-SUM($E38:V38))</f>
-        <v>0</v>
-      </c>
-      <c r="X38" s="33">
-        <f>IF($D38-SUM($E38:W38)&gt;X$5-SUM(X$7:X37),X$5-SUM(X$7:X37),$D38-SUM($E38:W38))</f>
-        <v>0</v>
-      </c>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
       <c r="AA38" s="33">
@@ -4493,14 +4326,8 @@
         <f>IF($D39-SUM($E39:U39)&gt;V$5-SUM(V$7:V38),V$5-SUM(V$7:V38),$D39-SUM($E39:U39))</f>
         <v>0</v>
       </c>
-      <c r="W39" s="33">
-        <f>IF($D39-SUM($E39:V39)&gt;W$5-SUM(W$7:W38),W$5-SUM(W$7:W38),$D39-SUM($E39:V39))</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="33">
-        <f>IF($D39-SUM($E39:W39)&gt;X$5-SUM(X$7:X38),X$5-SUM(X$7:X38),$D39-SUM($E39:W39))</f>
-        <v>0</v>
-      </c>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
       <c r="AA39" s="33">
@@ -4581,14 +4408,8 @@
         <f>IF($D40-SUM($E40:U40)&gt;V$5-SUM(V$7:V39),V$5-SUM(V$7:V39),$D40-SUM($E40:U40))</f>
         <v>0</v>
       </c>
-      <c r="W40" s="33">
-        <f>IF($D40-SUM($E40:V40)&gt;W$5-SUM(W$7:W39),W$5-SUM(W$7:W39),$D40-SUM($E40:V40))</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="33">
-        <f>IF($D40-SUM($E40:W40)&gt;X$5-SUM(X$7:X39),X$5-SUM(X$7:X39),$D40-SUM($E40:W40))</f>
-        <v>0</v>
-      </c>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33">
@@ -4669,14 +4490,8 @@
         <f>IF($D41-SUM($E41:U41)&gt;V$5-SUM(V$7:V40),V$5-SUM(V$7:V40),$D41-SUM($E41:U41))</f>
         <v>0</v>
       </c>
-      <c r="W41" s="33">
-        <f>IF($D41-SUM($E41:V41)&gt;W$5-SUM(W$7:W40),W$5-SUM(W$7:W40),$D41-SUM($E41:V41))</f>
-        <v>0</v>
-      </c>
-      <c r="X41" s="33">
-        <f>IF($D41-SUM($E41:W41)&gt;X$5-SUM(X$7:X40),X$5-SUM(X$7:X40),$D41-SUM($E41:W41))</f>
-        <v>0</v>
-      </c>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33">
@@ -4757,14 +4572,8 @@
         <f>IF($D42-SUM($E42:U42)&gt;V$5-SUM(V$7:V41),V$5-SUM(V$7:V41),$D42-SUM($E42:U42))</f>
         <v>0</v>
       </c>
-      <c r="W42" s="33">
-        <f>IF($D42-SUM($E42:V42)&gt;W$5-SUM(W$7:W41),W$5-SUM(W$7:W41),$D42-SUM($E42:V42))</f>
-        <v>0</v>
-      </c>
-      <c r="X42" s="33">
-        <f>IF($D42-SUM($E42:W42)&gt;X$5-SUM(X$7:X41),X$5-SUM(X$7:X41),$D42-SUM($E42:W42))</f>
-        <v>0</v>
-      </c>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
       <c r="AA42" s="33">
@@ -4845,14 +4654,8 @@
         <f>IF($D43-SUM($E43:U43)&gt;V$5-SUM(V$7:V42),V$5-SUM(V$7:V42),$D43-SUM($E43:U43))</f>
         <v>0</v>
       </c>
-      <c r="W43" s="33">
-        <f>IF($D43-SUM($E43:V43)&gt;W$5-SUM(W$7:W42),W$5-SUM(W$7:W42),$D43-SUM($E43:V43))</f>
-        <v>0</v>
-      </c>
-      <c r="X43" s="33">
-        <f>IF($D43-SUM($E43:W43)&gt;X$5-SUM(X$7:X42),X$5-SUM(X$7:X42),$D43-SUM($E43:W43))</f>
-        <v>0</v>
-      </c>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
       <c r="AA43" s="33">
@@ -4933,14 +4736,8 @@
         <f>IF($D44-SUM($E44:U44)&gt;V$5-SUM(V$7:V43),V$5-SUM(V$7:V43),$D44-SUM($E44:U44))</f>
         <v>0</v>
       </c>
-      <c r="W44" s="33">
-        <f>IF($D44-SUM($E44:V44)&gt;W$5-SUM(W$7:W43),W$5-SUM(W$7:W43),$D44-SUM($E44:V44))</f>
-        <v>0</v>
-      </c>
-      <c r="X44" s="33">
-        <f>IF($D44-SUM($E44:W44)&gt;X$5-SUM(X$7:X43),X$5-SUM(X$7:X43),$D44-SUM($E44:W44))</f>
-        <v>0</v>
-      </c>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33"/>
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
       <c r="AA44" s="33">
@@ -5021,14 +4818,8 @@
         <f>IF($D45-SUM($E45:U45)&gt;V$5-SUM(V$7:V44),V$5-SUM(V$7:V44),$D45-SUM($E45:U45))</f>
         <v>0</v>
       </c>
-      <c r="W45" s="33">
-        <f>IF($D45-SUM($E45:V45)&gt;W$5-SUM(W$7:W44),W$5-SUM(W$7:W44),$D45-SUM($E45:V45))</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="33">
-        <f>IF($D45-SUM($E45:W45)&gt;X$5-SUM(X$7:X44),X$5-SUM(X$7:X44),$D45-SUM($E45:W45))</f>
-        <v>0</v>
-      </c>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
       <c r="AA45" s="33">
@@ -5109,14 +4900,8 @@
         <f>IF($D46-SUM($E46:U46)&gt;V$5-SUM(V$7:V45),V$5-SUM(V$7:V45),$D46-SUM($E46:U46))</f>
         <v>0</v>
       </c>
-      <c r="W46" s="33">
-        <f>IF($D46-SUM($E46:V46)&gt;W$5-SUM(W$7:W45),W$5-SUM(W$7:W45),$D46-SUM($E46:V46))</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="33">
-        <f>IF($D46-SUM($E46:W46)&gt;X$5-SUM(X$7:X45),X$5-SUM(X$7:X45),$D46-SUM($E46:W46))</f>
-        <v>0</v>
-      </c>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
       <c r="AA46" s="33">
@@ -5197,14 +4982,8 @@
         <f>IF($D47-SUM($E47:U47)&gt;V$5-SUM(V$7:V46),V$5-SUM(V$7:V46),$D47-SUM($E47:U47))</f>
         <v>0</v>
       </c>
-      <c r="W47" s="33">
-        <f>IF($D47-SUM($E47:V47)&gt;W$5-SUM(W$7:W46),W$5-SUM(W$7:W46),$D47-SUM($E47:V47))</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="33">
-        <f>IF($D47-SUM($E47:W47)&gt;X$5-SUM(X$7:X46),X$5-SUM(X$7:X46),$D47-SUM($E47:W47))</f>
-        <v>0</v>
-      </c>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
       <c r="AA47" s="33">
@@ -5285,14 +5064,8 @@
         <f>IF($D48-SUM($E48:U48)&gt;V$5-SUM(V$7:V47),V$5-SUM(V$7:V47),$D48-SUM($E48:U48))</f>
         <v>0</v>
       </c>
-      <c r="W48" s="33">
-        <f>IF($D48-SUM($E48:V48)&gt;W$5-SUM(W$7:W47),W$5-SUM(W$7:W47),$D48-SUM($E48:V48))</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="33">
-        <f>IF($D48-SUM($E48:W48)&gt;X$5-SUM(X$7:X47),X$5-SUM(X$7:X47),$D48-SUM($E48:W48))</f>
-        <v>0</v>
-      </c>
+      <c r="W48" s="33"/>
+      <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
       <c r="AA48" s="33">
@@ -5373,14 +5146,8 @@
         <f>IF($D49-SUM($E49:U49)&gt;V$5-SUM(V$7:V48),V$5-SUM(V$7:V48),$D49-SUM($E49:U49))</f>
         <v>0</v>
       </c>
-      <c r="W49" s="33">
-        <f>IF($D49-SUM($E49:V49)&gt;W$5-SUM(W$7:W48),W$5-SUM(W$7:W48),$D49-SUM($E49:V49))</f>
-        <v>0</v>
-      </c>
-      <c r="X49" s="33">
-        <f>IF($D49-SUM($E49:W49)&gt;X$5-SUM(X$7:X48),X$5-SUM(X$7:X48),$D49-SUM($E49:W49))</f>
-        <v>0</v>
-      </c>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
       <c r="AA49" s="33">
@@ -5461,14 +5228,8 @@
         <f>IF($D50-SUM($E50:U50)&gt;V$5-SUM(V$7:V49),V$5-SUM(V$7:V49),$D50-SUM($E50:U50))</f>
         <v>0</v>
       </c>
-      <c r="W50" s="33">
-        <f>IF($D50-SUM($E50:V50)&gt;W$5-SUM(W$7:W49),W$5-SUM(W$7:W49),$D50-SUM($E50:V50))</f>
-        <v>0</v>
-      </c>
-      <c r="X50" s="33">
-        <f>IF($D50-SUM($E50:W50)&gt;X$5-SUM(X$7:X49),X$5-SUM(X$7:X49),$D50-SUM($E50:W50))</f>
-        <v>0</v>
-      </c>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
       <c r="AA50" s="33">
@@ -5549,14 +5310,8 @@
         <f>IF($D51-SUM($E51:U51)&gt;V$5-SUM(V$7:V50),V$5-SUM(V$7:V50),$D51-SUM($E51:U51))</f>
         <v>0</v>
       </c>
-      <c r="W51" s="33">
-        <f>IF($D51-SUM($E51:V51)&gt;W$5-SUM(W$7:W50),W$5-SUM(W$7:W50),$D51-SUM($E51:V51))</f>
-        <v>0</v>
-      </c>
-      <c r="X51" s="33">
-        <f>IF($D51-SUM($E51:W51)&gt;X$5-SUM(X$7:X50),X$5-SUM(X$7:X50),$D51-SUM($E51:W51))</f>
-        <v>0</v>
-      </c>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
       <c r="AA51" s="33">
@@ -5637,14 +5392,8 @@
         <f>IF($D52-SUM($E52:U52)&gt;V$5-SUM(V$7:V51),V$5-SUM(V$7:V51),$D52-SUM($E52:U52))</f>
         <v>0</v>
       </c>
-      <c r="W52" s="33">
-        <f>IF($D52-SUM($E52:V52)&gt;W$5-SUM(W$7:W51),W$5-SUM(W$7:W51),$D52-SUM($E52:V52))</f>
-        <v>0</v>
-      </c>
-      <c r="X52" s="33">
-        <f>IF($D52-SUM($E52:W52)&gt;X$5-SUM(X$7:X51),X$5-SUM(X$7:X51),$D52-SUM($E52:W52))</f>
-        <v>0</v>
-      </c>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
       <c r="AA52" s="33">
@@ -5725,14 +5474,8 @@
         <f>IF($D53-SUM($E53:U53)&gt;V$5-SUM(V$7:V52),V$5-SUM(V$7:V52),$D53-SUM($E53:U53))</f>
         <v>0</v>
       </c>
-      <c r="W53" s="33">
-        <f>IF($D53-SUM($E53:V53)&gt;W$5-SUM(W$7:W52),W$5-SUM(W$7:W52),$D53-SUM($E53:V53))</f>
-        <v>0</v>
-      </c>
-      <c r="X53" s="33">
-        <f>IF($D53-SUM($E53:W53)&gt;X$5-SUM(X$7:X52),X$5-SUM(X$7:X52),$D53-SUM($E53:W53))</f>
-        <v>0</v>
-      </c>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
       <c r="AA53" s="33">
@@ -5813,14 +5556,8 @@
         <f>IF($D54-SUM($E54:U54)&gt;V$5-SUM(V$7:V53),V$5-SUM(V$7:V53),$D54-SUM($E54:U54))</f>
         <v>0</v>
       </c>
-      <c r="W54" s="33">
-        <f>IF($D54-SUM($E54:V54)&gt;W$5-SUM(W$7:W53),W$5-SUM(W$7:W53),$D54-SUM($E54:V54))</f>
-        <v>0</v>
-      </c>
-      <c r="X54" s="33">
-        <f>IF($D54-SUM($E54:W54)&gt;X$5-SUM(X$7:X53),X$5-SUM(X$7:X53),$D54-SUM($E54:W54))</f>
-        <v>0</v>
-      </c>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33">
@@ -5901,14 +5638,8 @@
         <f>IF($D55-SUM($E55:U55)&gt;V$5-SUM(V$7:V54),V$5-SUM(V$7:V54),$D55-SUM($E55:U55))</f>
         <v>0</v>
       </c>
-      <c r="W55" s="33">
-        <f>IF($D55-SUM($E55:V55)&gt;W$5-SUM(W$7:W54),W$5-SUM(W$7:W54),$D55-SUM($E55:V55))</f>
-        <v>0</v>
-      </c>
-      <c r="X55" s="33">
-        <f>IF($D55-SUM($E55:W55)&gt;X$5-SUM(X$7:X54),X$5-SUM(X$7:X54),$D55-SUM($E55:W55))</f>
-        <v>0</v>
-      </c>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
       <c r="Y55" s="33"/>
       <c r="Z55" s="33"/>
       <c r="AA55" s="33">
@@ -5989,14 +5720,8 @@
         <f>IF($D56-SUM($E56:U56)&gt;V$5-SUM(V$7:V55),V$5-SUM(V$7:V55),$D56-SUM($E56:U56))</f>
         <v>0</v>
       </c>
-      <c r="W56" s="33">
-        <f>IF($D56-SUM($E56:V56)&gt;W$5-SUM(W$7:W55),W$5-SUM(W$7:W55),$D56-SUM($E56:V56))</f>
-        <v>0</v>
-      </c>
-      <c r="X56" s="33">
-        <f>IF($D56-SUM($E56:W56)&gt;X$5-SUM(X$7:X55),X$5-SUM(X$7:X55),$D56-SUM($E56:W56))</f>
-        <v>0</v>
-      </c>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
       <c r="AA56" s="33">
@@ -6077,14 +5802,8 @@
         <f>IF($D57-SUM($E57:U57)&gt;V$5-SUM(V$7:V56),V$5-SUM(V$7:V56),$D57-SUM($E57:U57))</f>
         <v>0</v>
       </c>
-      <c r="W57" s="33">
-        <f>IF($D57-SUM($E57:V57)&gt;W$5-SUM(W$7:W56),W$5-SUM(W$7:W56),$D57-SUM($E57:V57))</f>
-        <v>0</v>
-      </c>
-      <c r="X57" s="33">
-        <f>IF($D57-SUM($E57:W57)&gt;X$5-SUM(X$7:X56),X$5-SUM(X$7:X56),$D57-SUM($E57:W57))</f>
-        <v>0</v>
-      </c>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
       <c r="AA57" s="33">
@@ -6165,14 +5884,8 @@
         <f>IF($D58-SUM($E58:U58)&gt;V$5-SUM(V$7:V57),V$5-SUM(V$7:V57),$D58-SUM($E58:U58))</f>
         <v>0</v>
       </c>
-      <c r="W58" s="33">
-        <f>IF($D58-SUM($E58:V58)&gt;W$5-SUM(W$7:W57),W$5-SUM(W$7:W57),$D58-SUM($E58:V58))</f>
-        <v>0</v>
-      </c>
-      <c r="X58" s="33">
-        <f>IF($D58-SUM($E58:W58)&gt;X$5-SUM(X$7:X57),X$5-SUM(X$7:X57),$D58-SUM($E58:W58))</f>
-        <v>0</v>
-      </c>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
       <c r="AA58" s="33">
@@ -6253,14 +5966,8 @@
         <f>IF($D59-SUM($E59:U59)&gt;V$5-SUM(V$7:V58),V$5-SUM(V$7:V58),$D59-SUM($E59:U59))</f>
         <v>0</v>
       </c>
-      <c r="W59" s="33">
-        <f>IF($D59-SUM($E59:V59)&gt;W$5-SUM(W$7:W58),W$5-SUM(W$7:W58),$D59-SUM($E59:V59))</f>
-        <v>0</v>
-      </c>
-      <c r="X59" s="33">
-        <f>IF($D59-SUM($E59:W59)&gt;X$5-SUM(X$7:X58),X$5-SUM(X$7:X58),$D59-SUM($E59:W59))</f>
-        <v>0</v>
-      </c>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
       <c r="AA59" s="33">
@@ -6341,14 +6048,8 @@
         <f>IF($D60-SUM($E60:U60)&gt;V$5-SUM(V$7:V59),V$5-SUM(V$7:V59),$D60-SUM($E60:U60))</f>
         <v>0</v>
       </c>
-      <c r="W60" s="33">
-        <f>IF($D60-SUM($E60:V60)&gt;W$5-SUM(W$7:W59),W$5-SUM(W$7:W59),$D60-SUM($E60:V60))</f>
-        <v>0</v>
-      </c>
-      <c r="X60" s="33">
-        <f>IF($D60-SUM($E60:W60)&gt;X$5-SUM(X$7:X59),X$5-SUM(X$7:X59),$D60-SUM($E60:W60))</f>
-        <v>0</v>
-      </c>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
       <c r="AA60" s="33">
@@ -6429,14 +6130,8 @@
         <f>IF($D61-SUM($E61:U61)&gt;V$5-SUM(V$7:V60),V$5-SUM(V$7:V60),$D61-SUM($E61:U61))</f>
         <v>0</v>
       </c>
-      <c r="W61" s="33">
-        <f>IF($D61-SUM($E61:V61)&gt;W$5-SUM(W$7:W60),W$5-SUM(W$7:W60),$D61-SUM($E61:V61))</f>
-        <v>0</v>
-      </c>
-      <c r="X61" s="33">
-        <f>IF($D61-SUM($E61:W61)&gt;X$5-SUM(X$7:X60),X$5-SUM(X$7:X60),$D61-SUM($E61:W61))</f>
-        <v>0</v>
-      </c>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
       <c r="AA61" s="33">
@@ -6517,14 +6212,8 @@
         <f>IF($D62-SUM($E62:U62)&gt;V$5-SUM(V$7:V61),V$5-SUM(V$7:V61),$D62-SUM($E62:U62))</f>
         <v>0</v>
       </c>
-      <c r="W62" s="33">
-        <f>IF($D62-SUM($E62:V62)&gt;W$5-SUM(W$7:W61),W$5-SUM(W$7:W61),$D62-SUM($E62:V62))</f>
-        <v>0</v>
-      </c>
-      <c r="X62" s="33">
-        <f>IF($D62-SUM($E62:W62)&gt;X$5-SUM(X$7:X61),X$5-SUM(X$7:X61),$D62-SUM($E62:W62))</f>
-        <v>0</v>
-      </c>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
       <c r="AA62" s="33">
@@ -6605,14 +6294,8 @@
         <f>IF($D63-SUM($E63:U63)&gt;V$5-SUM(V$7:V62),V$5-SUM(V$7:V62),$D63-SUM($E63:U63))</f>
         <v>0</v>
       </c>
-      <c r="W63" s="33">
-        <f>IF($D63-SUM($E63:V63)&gt;W$5-SUM(W$7:W62),W$5-SUM(W$7:W62),$D63-SUM($E63:V63))</f>
-        <v>0</v>
-      </c>
-      <c r="X63" s="33">
-        <f>IF($D63-SUM($E63:W63)&gt;X$5-SUM(X$7:X62),X$5-SUM(X$7:X62),$D63-SUM($E63:W63))</f>
-        <v>0</v>
-      </c>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
       <c r="AA63" s="33">
@@ -6693,14 +6376,8 @@
         <f>IF($D64-SUM($E64:U64)&gt;V$5-SUM(V$7:V63),V$5-SUM(V$7:V63),$D64-SUM($E64:U64))</f>
         <v>0</v>
       </c>
-      <c r="W64" s="33">
-        <f>IF($D64-SUM($E64:V64)&gt;W$5-SUM(W$7:W63),W$5-SUM(W$7:W63),$D64-SUM($E64:V64))</f>
-        <v>0</v>
-      </c>
-      <c r="X64" s="33">
-        <f>IF($D64-SUM($E64:W64)&gt;X$5-SUM(X$7:X63),X$5-SUM(X$7:X63),$D64-SUM($E64:W64))</f>
-        <v>0</v>
-      </c>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
       <c r="AA64" s="33">
@@ -6781,14 +6458,8 @@
         <f>IF($D65-SUM($E65:U65)&gt;V$5-SUM(V$7:V64),V$5-SUM(V$7:V64),$D65-SUM($E65:U65))</f>
         <v>0</v>
       </c>
-      <c r="W65" s="33">
-        <f>IF($D65-SUM($E65:V65)&gt;W$5-SUM(W$7:W64),W$5-SUM(W$7:W64),$D65-SUM($E65:V65))</f>
-        <v>0</v>
-      </c>
-      <c r="X65" s="33">
-        <f>IF($D65-SUM($E65:W65)&gt;X$5-SUM(X$7:X64),X$5-SUM(X$7:X64),$D65-SUM($E65:W65))</f>
-        <v>0</v>
-      </c>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
       <c r="AA65" s="33">
@@ -6869,14 +6540,8 @@
         <f>IF($D66-SUM($E66:U66)&gt;V$5-SUM(V$7:V65),V$5-SUM(V$7:V65),$D66-SUM($E66:U66))</f>
         <v>0</v>
       </c>
-      <c r="W66" s="33">
-        <f>IF($D66-SUM($E66:V66)&gt;W$5-SUM(W$7:W65),W$5-SUM(W$7:W65),$D66-SUM($E66:V66))</f>
-        <v>0</v>
-      </c>
-      <c r="X66" s="33">
-        <f>IF($D66-SUM($E66:W66)&gt;X$5-SUM(X$7:X65),X$5-SUM(X$7:X65),$D66-SUM($E66:W66))</f>
-        <v>0</v>
-      </c>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
       <c r="AA66" s="33">
@@ -6957,14 +6622,8 @@
         <f>IF($D67-SUM($E67:U67)&gt;V$5-SUM(V$7:V66),V$5-SUM(V$7:V66),$D67-SUM($E67:U67))</f>
         <v>0</v>
       </c>
-      <c r="W67" s="33">
-        <f>IF($D67-SUM($E67:V67)&gt;W$5-SUM(W$7:W66),W$5-SUM(W$7:W66),$D67-SUM($E67:V67))</f>
-        <v>0</v>
-      </c>
-      <c r="X67" s="33">
-        <f>IF($D67-SUM($E67:W67)&gt;X$5-SUM(X$7:X66),X$5-SUM(X$7:X66),$D67-SUM($E67:W67))</f>
-        <v>0</v>
-      </c>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
       <c r="AA67" s="33">
@@ -7045,14 +6704,8 @@
         <f>IF($D68-SUM($E68:U68)&gt;V$5-SUM(V$7:V67),V$5-SUM(V$7:V67),$D68-SUM($E68:U68))</f>
         <v>0</v>
       </c>
-      <c r="W68" s="33">
-        <f>IF($D68-SUM($E68:V68)&gt;W$5-SUM(W$7:W67),W$5-SUM(W$7:W67),$D68-SUM($E68:V68))</f>
-        <v>0</v>
-      </c>
-      <c r="X68" s="33">
-        <f>IF($D68-SUM($E68:W68)&gt;X$5-SUM(X$7:X67),X$5-SUM(X$7:X67),$D68-SUM($E68:W68))</f>
-        <v>0</v>
-      </c>
+      <c r="W68" s="33"/>
+      <c r="X68" s="33"/>
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
       <c r="AA68" s="33">
@@ -7133,14 +6786,8 @@
         <f>IF($D69-SUM($E69:U69)&gt;V$5-SUM(V$7:V68),V$5-SUM(V$7:V68),$D69-SUM($E69:U69))</f>
         <v>0</v>
       </c>
-      <c r="W69" s="33">
-        <f>IF($D69-SUM($E69:V69)&gt;W$5-SUM(W$7:W68),W$5-SUM(W$7:W68),$D69-SUM($E69:V69))</f>
-        <v>0</v>
-      </c>
-      <c r="X69" s="33">
-        <f>IF($D69-SUM($E69:W69)&gt;X$5-SUM(X$7:X68),X$5-SUM(X$7:X68),$D69-SUM($E69:W69))</f>
-        <v>0</v>
-      </c>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
       <c r="AA69" s="33">
@@ -7221,14 +6868,8 @@
         <f>IF($D70-SUM($E70:U70)&gt;V$5-SUM(V$7:V69),V$5-SUM(V$7:V69),$D70-SUM($E70:U70))</f>
         <v>0</v>
       </c>
-      <c r="W70" s="33">
-        <f>IF($D70-SUM($E70:V70)&gt;W$5-SUM(W$7:W69),W$5-SUM(W$7:W69),$D70-SUM($E70:V70))</f>
-        <v>0</v>
-      </c>
-      <c r="X70" s="33">
-        <f>IF($D70-SUM($E70:W70)&gt;X$5-SUM(X$7:X69),X$5-SUM(X$7:X69),$D70-SUM($E70:W70))</f>
-        <v>0</v>
-      </c>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
       <c r="Y70" s="33"/>
       <c r="Z70" s="33"/>
       <c r="AA70" s="33">
@@ -7309,14 +6950,8 @@
         <f>IF($D71-SUM($E71:U71)&gt;V$5-SUM(V$7:V70),V$5-SUM(V$7:V70),$D71-SUM($E71:U71))</f>
         <v>0</v>
       </c>
-      <c r="W71" s="33">
-        <f>IF($D71-SUM($E71:V71)&gt;W$5-SUM(W$7:W70),W$5-SUM(W$7:W70),$D71-SUM($E71:V71))</f>
-        <v>0</v>
-      </c>
-      <c r="X71" s="33">
-        <f>IF($D71-SUM($E71:W71)&gt;X$5-SUM(X$7:X70),X$5-SUM(X$7:X70),$D71-SUM($E71:W71))</f>
-        <v>0</v>
-      </c>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
       <c r="Y71" s="33"/>
       <c r="Z71" s="33"/>
       <c r="AA71" s="33">
@@ -7397,14 +7032,8 @@
         <f>IF($D72-SUM($E72:U72)&gt;V$5-SUM(V$7:V71),V$5-SUM(V$7:V71),$D72-SUM($E72:U72))</f>
         <v>0</v>
       </c>
-      <c r="W72" s="33">
-        <f>IF($D72-SUM($E72:V72)&gt;W$5-SUM(W$7:W71),W$5-SUM(W$7:W71),$D72-SUM($E72:V72))</f>
-        <v>0</v>
-      </c>
-      <c r="X72" s="33">
-        <f>IF($D72-SUM($E72:W72)&gt;X$5-SUM(X$7:X71),X$5-SUM(X$7:X71),$D72-SUM($E72:W72))</f>
-        <v>0</v>
-      </c>
+      <c r="W72" s="33"/>
+      <c r="X72" s="33"/>
       <c r="Y72" s="33"/>
       <c r="Z72" s="33"/>
       <c r="AA72" s="33">
@@ -7485,14 +7114,8 @@
         <f>IF($D73-SUM($E73:U73)&gt;V$5-SUM(V$7:V72),V$5-SUM(V$7:V72),$D73-SUM($E73:U73))</f>
         <v>0</v>
       </c>
-      <c r="W73" s="33">
-        <f>IF($D73-SUM($E73:V73)&gt;W$5-SUM(W$7:W72),W$5-SUM(W$7:W72),$D73-SUM($E73:V73))</f>
-        <v>0</v>
-      </c>
-      <c r="X73" s="33">
-        <f>IF($D73-SUM($E73:W73)&gt;X$5-SUM(X$7:X72),X$5-SUM(X$7:X72),$D73-SUM($E73:W73))</f>
-        <v>0</v>
-      </c>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
       <c r="Y73" s="33"/>
       <c r="Z73" s="33"/>
       <c r="AA73" s="33">
@@ -7573,14 +7196,8 @@
         <f>IF($D74-SUM($E74:U74)&gt;V$5-SUM(V$7:V73),V$5-SUM(V$7:V73),$D74-SUM($E74:U74))</f>
         <v>0</v>
       </c>
-      <c r="W74" s="33">
-        <f>IF($D74-SUM($E74:V74)&gt;W$5-SUM(W$7:W73),W$5-SUM(W$7:W73),$D74-SUM($E74:V74))</f>
-        <v>0</v>
-      </c>
-      <c r="X74" s="33">
-        <f>IF($D74-SUM($E74:W74)&gt;X$5-SUM(X$7:X73),X$5-SUM(X$7:X73),$D74-SUM($E74:W74))</f>
-        <v>0</v>
-      </c>
+      <c r="W74" s="33"/>
+      <c r="X74" s="33"/>
       <c r="Y74" s="33"/>
       <c r="Z74" s="33"/>
       <c r="AA74" s="33">
@@ -7661,14 +7278,8 @@
         <f>IF($D75-SUM($E75:U75)&gt;V$5-SUM(V$7:V74),V$5-SUM(V$7:V74),$D75-SUM($E75:U75))</f>
         <v>0</v>
       </c>
-      <c r="W75" s="33">
-        <f>IF($D75-SUM($E75:V75)&gt;W$5-SUM(W$7:W74),W$5-SUM(W$7:W74),$D75-SUM($E75:V75))</f>
-        <v>0</v>
-      </c>
-      <c r="X75" s="33">
-        <f>IF($D75-SUM($E75:W75)&gt;X$5-SUM(X$7:X74),X$5-SUM(X$7:X74),$D75-SUM($E75:W75))</f>
-        <v>0</v>
-      </c>
+      <c r="W75" s="33"/>
+      <c r="X75" s="33"/>
       <c r="Y75" s="33"/>
       <c r="Z75" s="33"/>
       <c r="AA75" s="33">
@@ -7749,14 +7360,8 @@
         <f>IF($D76-SUM($E76:U76)&gt;V$5-SUM(V$7:V75),V$5-SUM(V$7:V75),$D76-SUM($E76:U76))</f>
         <v>0</v>
       </c>
-      <c r="W76" s="33">
-        <f>IF($D76-SUM($E76:V76)&gt;W$5-SUM(W$7:W75),W$5-SUM(W$7:W75),$D76-SUM($E76:V76))</f>
-        <v>0</v>
-      </c>
-      <c r="X76" s="33">
-        <f>IF($D76-SUM($E76:W76)&gt;X$5-SUM(X$7:X75),X$5-SUM(X$7:X75),$D76-SUM($E76:W76))</f>
-        <v>0</v>
-      </c>
+      <c r="W76" s="33"/>
+      <c r="X76" s="33"/>
       <c r="Y76" s="33"/>
       <c r="Z76" s="33"/>
       <c r="AA76" s="33">
@@ -7837,14 +7442,8 @@
         <f>IF($D77-SUM($E77:U77)&gt;V$5-SUM(V$7:V76),V$5-SUM(V$7:V76),$D77-SUM($E77:U77))</f>
         <v>0</v>
       </c>
-      <c r="W77" s="33">
-        <f>IF($D77-SUM($E77:V77)&gt;W$5-SUM(W$7:W76),W$5-SUM(W$7:W76),$D77-SUM($E77:V77))</f>
-        <v>0</v>
-      </c>
-      <c r="X77" s="33">
-        <f>IF($D77-SUM($E77:W77)&gt;X$5-SUM(X$7:X76),X$5-SUM(X$7:X76),$D77-SUM($E77:W77))</f>
-        <v>0</v>
-      </c>
+      <c r="W77" s="33"/>
+      <c r="X77" s="33"/>
       <c r="Y77" s="33"/>
       <c r="Z77" s="33"/>
       <c r="AA77" s="33">
@@ -7925,14 +7524,8 @@
         <f>IF($D78-SUM($E78:U78)&gt;V$5-SUM(V$7:V77),V$5-SUM(V$7:V77),$D78-SUM($E78:U78))</f>
         <v>0</v>
       </c>
-      <c r="W78" s="33">
-        <f>IF($D78-SUM($E78:V78)&gt;W$5-SUM(W$7:W77),W$5-SUM(W$7:W77),$D78-SUM($E78:V78))</f>
-        <v>0</v>
-      </c>
-      <c r="X78" s="33">
-        <f>IF($D78-SUM($E78:W78)&gt;X$5-SUM(X$7:X77),X$5-SUM(X$7:X77),$D78-SUM($E78:W78))</f>
-        <v>0</v>
-      </c>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
       <c r="Y78" s="33"/>
       <c r="Z78" s="33"/>
       <c r="AA78" s="33">
@@ -8013,14 +7606,8 @@
         <f>IF($D79-SUM($E79:U79)&gt;V$5-SUM(V$7:V78),V$5-SUM(V$7:V78),$D79-SUM($E79:U79))</f>
         <v>0</v>
       </c>
-      <c r="W79" s="33">
-        <f>IF($D79-SUM($E79:V79)&gt;W$5-SUM(W$7:W78),W$5-SUM(W$7:W78),$D79-SUM($E79:V79))</f>
-        <v>0</v>
-      </c>
-      <c r="X79" s="33">
-        <f>IF($D79-SUM($E79:W79)&gt;X$5-SUM(X$7:X78),X$5-SUM(X$7:X78),$D79-SUM($E79:W79))</f>
-        <v>0</v>
-      </c>
+      <c r="W79" s="33"/>
+      <c r="X79" s="33"/>
       <c r="Y79" s="33"/>
       <c r="Z79" s="33"/>
       <c r="AA79" s="33">
@@ -8101,14 +7688,8 @@
         <f>IF($D80-SUM($E80:U80)&gt;V$5-SUM(V$7:V79),V$5-SUM(V$7:V79),$D80-SUM($E80:U80))</f>
         <v>0</v>
       </c>
-      <c r="W80" s="33">
-        <f>IF($D80-SUM($E80:V80)&gt;W$5-SUM(W$7:W79),W$5-SUM(W$7:W79),$D80-SUM($E80:V80))</f>
-        <v>0</v>
-      </c>
-      <c r="X80" s="33">
-        <f>IF($D80-SUM($E80:W80)&gt;X$5-SUM(X$7:X79),X$5-SUM(X$7:X79),$D80-SUM($E80:W80))</f>
-        <v>0</v>
-      </c>
+      <c r="W80" s="33"/>
+      <c r="X80" s="33"/>
       <c r="Y80" s="33"/>
       <c r="Z80" s="33"/>
       <c r="AA80" s="33">
@@ -8189,14 +7770,8 @@
         <f>IF($D81-SUM($E81:U81)&gt;V$5-SUM(V$7:V80),V$5-SUM(V$7:V80),$D81-SUM($E81:U81))</f>
         <v>0</v>
       </c>
-      <c r="W81" s="33">
-        <f>IF($D81-SUM($E81:V81)&gt;W$5-SUM(W$7:W80),W$5-SUM(W$7:W80),$D81-SUM($E81:V81))</f>
-        <v>0</v>
-      </c>
-      <c r="X81" s="33">
-        <f>IF($D81-SUM($E81:W81)&gt;X$5-SUM(X$7:X80),X$5-SUM(X$7:X80),$D81-SUM($E81:W81))</f>
-        <v>0</v>
-      </c>
+      <c r="W81" s="33"/>
+      <c r="X81" s="33"/>
       <c r="Y81" s="33"/>
       <c r="Z81" s="33"/>
       <c r="AA81" s="33">
@@ -8277,14 +7852,8 @@
         <f>IF($D82-SUM($E82:U82)&gt;V$5-SUM(V$7:V81),V$5-SUM(V$7:V81),$D82-SUM($E82:U82))</f>
         <v>0</v>
       </c>
-      <c r="W82" s="33">
-        <f>IF($D82-SUM($E82:V82)&gt;W$5-SUM(W$7:W81),W$5-SUM(W$7:W81),$D82-SUM($E82:V82))</f>
-        <v>0</v>
-      </c>
-      <c r="X82" s="33">
-        <f>IF($D82-SUM($E82:W82)&gt;X$5-SUM(X$7:X81),X$5-SUM(X$7:X81),$D82-SUM($E82:W82))</f>
-        <v>0</v>
-      </c>
+      <c r="W82" s="33"/>
+      <c r="X82" s="33"/>
       <c r="Y82" s="33"/>
       <c r="Z82" s="33"/>
       <c r="AA82" s="33">
@@ -8365,14 +7934,8 @@
         <f>IF($D83-SUM($E83:U83)&gt;V$5-SUM(V$7:V82),V$5-SUM(V$7:V82),$D83-SUM($E83:U83))</f>
         <v>0</v>
       </c>
-      <c r="W83" s="33">
-        <f>IF($D83-SUM($E83:V83)&gt;W$5-SUM(W$7:W82),W$5-SUM(W$7:W82),$D83-SUM($E83:V83))</f>
-        <v>0</v>
-      </c>
-      <c r="X83" s="33">
-        <f>IF($D83-SUM($E83:W83)&gt;X$5-SUM(X$7:X82),X$5-SUM(X$7:X82),$D83-SUM($E83:W83))</f>
-        <v>0</v>
-      </c>
+      <c r="W83" s="33"/>
+      <c r="X83" s="33"/>
       <c r="Y83" s="33"/>
       <c r="Z83" s="33"/>
       <c r="AA83" s="33">
@@ -8453,14 +8016,8 @@
         <f>IF($D84-SUM($E84:U84)&gt;V$5-SUM(V$7:V83),V$5-SUM(V$7:V83),$D84-SUM($E84:U84))</f>
         <v>0</v>
       </c>
-      <c r="W84" s="33">
-        <f>IF($D84-SUM($E84:V84)&gt;W$5-SUM(W$7:W83),W$5-SUM(W$7:W83),$D84-SUM($E84:V84))</f>
-        <v>0</v>
-      </c>
-      <c r="X84" s="33">
-        <f>IF($D84-SUM($E84:W84)&gt;X$5-SUM(X$7:X83),X$5-SUM(X$7:X83),$D84-SUM($E84:W84))</f>
-        <v>0</v>
-      </c>
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
       <c r="Y84" s="33"/>
       <c r="Z84" s="33"/>
       <c r="AA84" s="33">
@@ -8541,14 +8098,8 @@
         <f>IF($D85-SUM($E85:U85)&gt;V$5-SUM(V$7:V84),V$5-SUM(V$7:V84),$D85-SUM($E85:U85))</f>
         <v>0</v>
       </c>
-      <c r="W85" s="33">
-        <f>IF($D85-SUM($E85:V85)&gt;W$5-SUM(W$7:W84),W$5-SUM(W$7:W84),$D85-SUM($E85:V85))</f>
-        <v>0</v>
-      </c>
-      <c r="X85" s="33">
-        <f>IF($D85-SUM($E85:W85)&gt;X$5-SUM(X$7:X84),X$5-SUM(X$7:X84),$D85-SUM($E85:W85))</f>
-        <v>0</v>
-      </c>
+      <c r="W85" s="33"/>
+      <c r="X85" s="33"/>
       <c r="Y85" s="33"/>
       <c r="Z85" s="33"/>
       <c r="AA85" s="33">
@@ -8629,14 +8180,8 @@
         <f>IF($D86-SUM($E86:U86)&gt;V$5-SUM(V$7:V85),V$5-SUM(V$7:V85),$D86-SUM($E86:U86))</f>
         <v>0</v>
       </c>
-      <c r="W86" s="33">
-        <f>IF($D86-SUM($E86:V86)&gt;W$5-SUM(W$7:W85),W$5-SUM(W$7:W85),$D86-SUM($E86:V86))</f>
-        <v>0</v>
-      </c>
-      <c r="X86" s="33">
-        <f>IF($D86-SUM($E86:W86)&gt;X$5-SUM(X$7:X85),X$5-SUM(X$7:X85),$D86-SUM($E86:W86))</f>
-        <v>0</v>
-      </c>
+      <c r="W86" s="33"/>
+      <c r="X86" s="33"/>
       <c r="Y86" s="33"/>
       <c r="Z86" s="33"/>
       <c r="AA86" s="33">
@@ -8717,14 +8262,8 @@
         <f>IF($D87-SUM($E87:U87)&gt;V$5-SUM(V$7:V86),V$5-SUM(V$7:V86),$D87-SUM($E87:U87))</f>
         <v>0</v>
       </c>
-      <c r="W87" s="33">
-        <f>IF($D87-SUM($E87:V87)&gt;W$5-SUM(W$7:W86),W$5-SUM(W$7:W86),$D87-SUM($E87:V87))</f>
-        <v>0</v>
-      </c>
-      <c r="X87" s="33">
-        <f>IF($D87-SUM($E87:W87)&gt;X$5-SUM(X$7:X86),X$5-SUM(X$7:X86),$D87-SUM($E87:W87))</f>
-        <v>0</v>
-      </c>
+      <c r="W87" s="33"/>
+      <c r="X87" s="33"/>
       <c r="Y87" s="33"/>
       <c r="Z87" s="33"/>
       <c r="AA87" s="33">
@@ -8805,14 +8344,8 @@
         <f>IF($D88-SUM($E88:U88)&gt;V$5-SUM(V$7:V87),V$5-SUM(V$7:V87),$D88-SUM($E88:U88))</f>
         <v>0</v>
       </c>
-      <c r="W88" s="33">
-        <f>IF($D88-SUM($E88:V88)&gt;W$5-SUM(W$7:W87),W$5-SUM(W$7:W87),$D88-SUM($E88:V88))</f>
-        <v>0</v>
-      </c>
-      <c r="X88" s="33">
-        <f>IF($D88-SUM($E88:W88)&gt;X$5-SUM(X$7:X87),X$5-SUM(X$7:X87),$D88-SUM($E88:W88))</f>
-        <v>0</v>
-      </c>
+      <c r="W88" s="33"/>
+      <c r="X88" s="33"/>
       <c r="Y88" s="33"/>
       <c r="Z88" s="33"/>
       <c r="AA88" s="33">
@@ -8893,14 +8426,8 @@
         <f>IF($D89-SUM($E89:U89)&gt;V$5-SUM(V$7:V88),V$5-SUM(V$7:V88),$D89-SUM($E89:U89))</f>
         <v>0</v>
       </c>
-      <c r="W89" s="33">
-        <f>IF($D89-SUM($E89:V89)&gt;W$5-SUM(W$7:W88),W$5-SUM(W$7:W88),$D89-SUM($E89:V89))</f>
-        <v>0</v>
-      </c>
-      <c r="X89" s="33">
-        <f>IF($D89-SUM($E89:W89)&gt;X$5-SUM(X$7:X88),X$5-SUM(X$7:X88),$D89-SUM($E89:W89))</f>
-        <v>0</v>
-      </c>
+      <c r="W89" s="33"/>
+      <c r="X89" s="33"/>
       <c r="Y89" s="33"/>
       <c r="Z89" s="33"/>
       <c r="AA89" s="33">
@@ -8981,14 +8508,8 @@
         <f>IF($D90-SUM($E90:U90)&gt;V$5-SUM(V$7:V89),V$5-SUM(V$7:V89),$D90-SUM($E90:U90))</f>
         <v>0</v>
       </c>
-      <c r="W90" s="33">
-        <f>IF($D90-SUM($E90:V90)&gt;W$5-SUM(W$7:W89),W$5-SUM(W$7:W89),$D90-SUM($E90:V90))</f>
-        <v>0</v>
-      </c>
-      <c r="X90" s="33">
-        <f>IF($D90-SUM($E90:W90)&gt;X$5-SUM(X$7:X89),X$5-SUM(X$7:X89),$D90-SUM($E90:W90))</f>
-        <v>0</v>
-      </c>
+      <c r="W90" s="33"/>
+      <c r="X90" s="33"/>
       <c r="Y90" s="33"/>
       <c r="Z90" s="33"/>
       <c r="AA90" s="33">
@@ -9069,14 +8590,8 @@
         <f>IF($D91-SUM($E91:U91)&gt;V$5-SUM(V$7:V90),V$5-SUM(V$7:V90),$D91-SUM($E91:U91))</f>
         <v>0</v>
       </c>
-      <c r="W91" s="33">
-        <f>IF($D91-SUM($E91:V91)&gt;W$5-SUM(W$7:W90),W$5-SUM(W$7:W90),$D91-SUM($E91:V91))</f>
-        <v>0</v>
-      </c>
-      <c r="X91" s="33">
-        <f>IF($D91-SUM($E91:W91)&gt;X$5-SUM(X$7:X90),X$5-SUM(X$7:X90),$D91-SUM($E91:W91))</f>
-        <v>0</v>
-      </c>
+      <c r="W91" s="33"/>
+      <c r="X91" s="33"/>
       <c r="Y91" s="33"/>
       <c r="Z91" s="33"/>
       <c r="AA91" s="33">
@@ -9157,14 +8672,8 @@
         <f>IF($D92-SUM($E92:U92)&gt;V$5-SUM(V$7:V91),V$5-SUM(V$7:V91),$D92-SUM($E92:U92))</f>
         <v>0</v>
       </c>
-      <c r="W92" s="33">
-        <f>IF($D92-SUM($E92:V92)&gt;W$5-SUM(W$7:W91),W$5-SUM(W$7:W91),$D92-SUM($E92:V92))</f>
-        <v>0</v>
-      </c>
-      <c r="X92" s="33">
-        <f>IF($D92-SUM($E92:W92)&gt;X$5-SUM(X$7:X91),X$5-SUM(X$7:X91),$D92-SUM($E92:W92))</f>
-        <v>0</v>
-      </c>
+      <c r="W92" s="33"/>
+      <c r="X92" s="33"/>
       <c r="Y92" s="33"/>
       <c r="Z92" s="33"/>
       <c r="AA92" s="33">
@@ -9245,14 +8754,8 @@
         <f>IF($D93-SUM($E93:U93)&gt;V$5-SUM(V$7:V92),V$5-SUM(V$7:V92),$D93-SUM($E93:U93))</f>
         <v>0</v>
       </c>
-      <c r="W93" s="33">
-        <f>IF($D93-SUM($E93:V93)&gt;W$5-SUM(W$7:W92),W$5-SUM(W$7:W92),$D93-SUM($E93:V93))</f>
-        <v>0</v>
-      </c>
-      <c r="X93" s="33">
-        <f>IF($D93-SUM($E93:W93)&gt;X$5-SUM(X$7:X92),X$5-SUM(X$7:X92),$D93-SUM($E93:W93))</f>
-        <v>0</v>
-      </c>
+      <c r="W93" s="33"/>
+      <c r="X93" s="33"/>
       <c r="Y93" s="33"/>
       <c r="Z93" s="33"/>
       <c r="AA93" s="33">
@@ -9333,14 +8836,8 @@
         <f>IF($D94-SUM($E94:U94)&gt;V$5-SUM(V$7:V93),V$5-SUM(V$7:V93),$D94-SUM($E94:U94))</f>
         <v>0</v>
       </c>
-      <c r="W94" s="33">
-        <f>IF($D94-SUM($E94:V94)&gt;W$5-SUM(W$7:W93),W$5-SUM(W$7:W93),$D94-SUM($E94:V94))</f>
-        <v>0</v>
-      </c>
-      <c r="X94" s="33">
-        <f>IF($D94-SUM($E94:W94)&gt;X$5-SUM(X$7:X93),X$5-SUM(X$7:X93),$D94-SUM($E94:W94))</f>
-        <v>0</v>
-      </c>
+      <c r="W94" s="33"/>
+      <c r="X94" s="33"/>
       <c r="Y94" s="33"/>
       <c r="Z94" s="33"/>
       <c r="AA94" s="33">
@@ -9421,14 +8918,8 @@
         <f>IF($D95-SUM($E95:U95)&gt;V$5-SUM(V$7:V94),V$5-SUM(V$7:V94),$D95-SUM($E95:U95))</f>
         <v>0</v>
       </c>
-      <c r="W95" s="33">
-        <f>IF($D95-SUM($E95:V95)&gt;W$5-SUM(W$7:W94),W$5-SUM(W$7:W94),$D95-SUM($E95:V95))</f>
-        <v>0</v>
-      </c>
-      <c r="X95" s="33">
-        <f>IF($D95-SUM($E95:W95)&gt;X$5-SUM(X$7:X94),X$5-SUM(X$7:X94),$D95-SUM($E95:W95))</f>
-        <v>0</v>
-      </c>
+      <c r="W95" s="33"/>
+      <c r="X95" s="33"/>
       <c r="Y95" s="33"/>
       <c r="Z95" s="33"/>
       <c r="AA95" s="33">
@@ -9509,14 +9000,8 @@
         <f>IF($D96-SUM($E96:U96)&gt;V$5-SUM(V$7:V95),V$5-SUM(V$7:V95),$D96-SUM($E96:U96))</f>
         <v>0</v>
       </c>
-      <c r="W96" s="33">
-        <f>IF($D96-SUM($E96:V96)&gt;W$5-SUM(W$7:W95),W$5-SUM(W$7:W95),$D96-SUM($E96:V96))</f>
-        <v>0</v>
-      </c>
-      <c r="X96" s="33">
-        <f>IF($D96-SUM($E96:W96)&gt;X$5-SUM(X$7:X95),X$5-SUM(X$7:X95),$D96-SUM($E96:W96))</f>
-        <v>0</v>
-      </c>
+      <c r="W96" s="33"/>
+      <c r="X96" s="33"/>
       <c r="Y96" s="33"/>
       <c r="Z96" s="33"/>
       <c r="AA96" s="33">
@@ -9597,14 +9082,8 @@
         <f>IF($D97-SUM($E97:U97)&gt;V$5-SUM(V$7:V96),V$5-SUM(V$7:V96),$D97-SUM($E97:U97))</f>
         <v>0</v>
       </c>
-      <c r="W97" s="33">
-        <f>IF($D97-SUM($E97:V97)&gt;W$5-SUM(W$7:W96),W$5-SUM(W$7:W96),$D97-SUM($E97:V97))</f>
-        <v>0</v>
-      </c>
-      <c r="X97" s="33">
-        <f>IF($D97-SUM($E97:W97)&gt;X$5-SUM(X$7:X96),X$5-SUM(X$7:X96),$D97-SUM($E97:W97))</f>
-        <v>0</v>
-      </c>
+      <c r="W97" s="33"/>
+      <c r="X97" s="33"/>
       <c r="Y97" s="33"/>
       <c r="Z97" s="33"/>
       <c r="AA97" s="33">
@@ -9685,14 +9164,8 @@
         <f>IF($D98-SUM($E98:U98)&gt;V$5-SUM(V$7:V97),V$5-SUM(V$7:V97),$D98-SUM($E98:U98))</f>
         <v>0</v>
       </c>
-      <c r="W98" s="33">
-        <f>IF($D98-SUM($E98:V98)&gt;W$5-SUM(W$7:W97),W$5-SUM(W$7:W97),$D98-SUM($E98:V98))</f>
-        <v>0</v>
-      </c>
-      <c r="X98" s="33">
-        <f>IF($D98-SUM($E98:W98)&gt;X$5-SUM(X$7:X97),X$5-SUM(X$7:X97),$D98-SUM($E98:W98))</f>
-        <v>0</v>
-      </c>
+      <c r="W98" s="33"/>
+      <c r="X98" s="33"/>
       <c r="Y98" s="33"/>
       <c r="Z98" s="33"/>
       <c r="AA98" s="33">
@@ -9773,14 +9246,8 @@
         <f>IF($D99-SUM($E99:U99)&gt;V$5-SUM(V$7:V98),V$5-SUM(V$7:V98),$D99-SUM($E99:U99))</f>
         <v>0</v>
       </c>
-      <c r="W99" s="33">
-        <f>IF($D99-SUM($E99:V99)&gt;W$5-SUM(W$7:W98),W$5-SUM(W$7:W98),$D99-SUM($E99:V99))</f>
-        <v>0</v>
-      </c>
-      <c r="X99" s="33">
-        <f>IF($D99-SUM($E99:W99)&gt;X$5-SUM(X$7:X98),X$5-SUM(X$7:X98),$D99-SUM($E99:W99))</f>
-        <v>0</v>
-      </c>
+      <c r="W99" s="33"/>
+      <c r="X99" s="33"/>
       <c r="Y99" s="33"/>
       <c r="Z99" s="33"/>
       <c r="AA99" s="33">
@@ -9861,14 +9328,8 @@
         <f>IF($D100-SUM($E100:U100)&gt;V$5-SUM(V$7:V99),V$5-SUM(V$7:V99),$D100-SUM($E100:U100))</f>
         <v>0</v>
       </c>
-      <c r="W100" s="33">
-        <f>IF($D100-SUM($E100:V100)&gt;W$5-SUM(W$7:W99),W$5-SUM(W$7:W99),$D100-SUM($E100:V100))</f>
-        <v>0</v>
-      </c>
-      <c r="X100" s="33">
-        <f>IF($D100-SUM($E100:W100)&gt;X$5-SUM(X$7:X99),X$5-SUM(X$7:X99),$D100-SUM($E100:W100))</f>
-        <v>0</v>
-      </c>
+      <c r="W100" s="33"/>
+      <c r="X100" s="33"/>
       <c r="Y100" s="33"/>
       <c r="Z100" s="33"/>
       <c r="AA100" s="33">
@@ -9949,14 +9410,8 @@
         <f>IF($D101-SUM($E101:U101)&gt;V$5-SUM(V$7:V100),V$5-SUM(V$7:V100),$D101-SUM($E101:U101))</f>
         <v>0</v>
       </c>
-      <c r="W101" s="33">
-        <f>IF($D101-SUM($E101:V101)&gt;W$5-SUM(W$7:W100),W$5-SUM(W$7:W100),$D101-SUM($E101:V101))</f>
-        <v>0</v>
-      </c>
-      <c r="X101" s="33">
-        <f>IF($D101-SUM($E101:W101)&gt;X$5-SUM(X$7:X100),X$5-SUM(X$7:X100),$D101-SUM($E101:W101))</f>
-        <v>0</v>
-      </c>
+      <c r="W101" s="33"/>
+      <c r="X101" s="33"/>
       <c r="Y101" s="33"/>
       <c r="Z101" s="33"/>
       <c r="AA101" s="33">
@@ -10037,14 +9492,8 @@
         <f>IF($D102-SUM($E102:U102)&gt;V$5-SUM(V$7:V101),V$5-SUM(V$7:V101),$D102-SUM($E102:U102))</f>
         <v>0</v>
       </c>
-      <c r="W102" s="33">
-        <f>IF($D102-SUM($E102:V102)&gt;W$5-SUM(W$7:W101),W$5-SUM(W$7:W101),$D102-SUM($E102:V102))</f>
-        <v>0</v>
-      </c>
-      <c r="X102" s="33">
-        <f>IF($D102-SUM($E102:W102)&gt;X$5-SUM(X$7:X101),X$5-SUM(X$7:X101),$D102-SUM($E102:W102))</f>
-        <v>0</v>
-      </c>
+      <c r="W102" s="33"/>
+      <c r="X102" s="33"/>
       <c r="Y102" s="33"/>
       <c r="Z102" s="33"/>
       <c r="AA102" s="33">
@@ -10125,14 +9574,8 @@
         <f>IF($D103-SUM($E103:U103)&gt;V$5-SUM(V$7:V102),V$5-SUM(V$7:V102),$D103-SUM($E103:U103))</f>
         <v>0</v>
       </c>
-      <c r="W103" s="33">
-        <f>IF($D103-SUM($E103:V103)&gt;W$5-SUM(W$7:W102),W$5-SUM(W$7:W102),$D103-SUM($E103:V103))</f>
-        <v>0</v>
-      </c>
-      <c r="X103" s="33">
-        <f>IF($D103-SUM($E103:W103)&gt;X$5-SUM(X$7:X102),X$5-SUM(X$7:X102),$D103-SUM($E103:W103))</f>
-        <v>0</v>
-      </c>
+      <c r="W103" s="33"/>
+      <c r="X103" s="33"/>
       <c r="Y103" s="33"/>
       <c r="Z103" s="33"/>
       <c r="AA103" s="33">
@@ -10213,14 +9656,8 @@
         <f>IF($D104-SUM($E104:U104)&gt;V$5-SUM(V$7:V103),V$5-SUM(V$7:V103),$D104-SUM($E104:U104))</f>
         <v>0</v>
       </c>
-      <c r="W104" s="33">
-        <f>IF($D104-SUM($E104:V104)&gt;W$5-SUM(W$7:W103),W$5-SUM(W$7:W103),$D104-SUM($E104:V104))</f>
-        <v>0</v>
-      </c>
-      <c r="X104" s="33">
-        <f>IF($D104-SUM($E104:W104)&gt;X$5-SUM(X$7:X103),X$5-SUM(X$7:X103),$D104-SUM($E104:W104))</f>
-        <v>0</v>
-      </c>
+      <c r="W104" s="33"/>
+      <c r="X104" s="33"/>
       <c r="Y104" s="33"/>
       <c r="Z104" s="33"/>
       <c r="AA104" s="33">
@@ -10301,14 +9738,8 @@
         <f>IF($D105-SUM($E105:U105)&gt;V$5-SUM(V$7:V104),V$5-SUM(V$7:V104),$D105-SUM($E105:U105))</f>
         <v>0</v>
       </c>
-      <c r="W105" s="33">
-        <f>IF($D105-SUM($E105:V105)&gt;W$5-SUM(W$7:W104),W$5-SUM(W$7:W104),$D105-SUM($E105:V105))</f>
-        <v>0</v>
-      </c>
-      <c r="X105" s="33">
-        <f>IF($D105-SUM($E105:W105)&gt;X$5-SUM(X$7:X104),X$5-SUM(X$7:X104),$D105-SUM($E105:W105))</f>
-        <v>0</v>
-      </c>
+      <c r="W105" s="33"/>
+      <c r="X105" s="33"/>
       <c r="Y105" s="33"/>
       <c r="Z105" s="33"/>
       <c r="AA105" s="33">
@@ -10389,14 +9820,8 @@
         <f>IF($D106-SUM($E106:U106)&gt;V$5-SUM(V$7:V105),V$5-SUM(V$7:V105),$D106-SUM($E106:U106))</f>
         <v>0</v>
       </c>
-      <c r="W106" s="33">
-        <f>IF($D106-SUM($E106:V106)&gt;W$5-SUM(W$7:W105),W$5-SUM(W$7:W105),$D106-SUM($E106:V106))</f>
-        <v>0</v>
-      </c>
-      <c r="X106" s="33">
-        <f>IF($D106-SUM($E106:W106)&gt;X$5-SUM(X$7:X105),X$5-SUM(X$7:X105),$D106-SUM($E106:W106))</f>
-        <v>0</v>
-      </c>
+      <c r="W106" s="33"/>
+      <c r="X106" s="33"/>
       <c r="Y106" s="33"/>
       <c r="Z106" s="33"/>
       <c r="AA106" s="33">
@@ -10477,14 +9902,8 @@
         <f>IF($D107-SUM($E107:U107)&gt;V$5-SUM(V$7:V106),V$5-SUM(V$7:V106),$D107-SUM($E107:U107))</f>
         <v>0</v>
       </c>
-      <c r="W107" s="60">
-        <f>IF($D107-SUM($E107:V107)&gt;W$5-SUM(W$7:W106),W$5-SUM(W$7:W106),$D107-SUM($E107:V107))</f>
-        <v>0</v>
-      </c>
-      <c r="X107" s="60">
-        <f>IF($D107-SUM($E107:W107)&gt;X$5-SUM(X$7:X106),X$5-SUM(X$7:X106),$D107-SUM($E107:W107))</f>
-        <v>0</v>
-      </c>
+      <c r="W107" s="60"/>
+      <c r="X107" s="60"/>
       <c r="Y107" s="60"/>
       <c r="Z107" s="60"/>
       <c r="AA107" s="60">
@@ -10684,6 +10103,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10958,30 +10400,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10999,24 +10438,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Strokenplanning.xlsx
+++ b/Documentatie/Strokenplanning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolProject\RPM-Proftaak\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RPM-Proftaak\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F8A05-CCD1-401C-8D10-6512A339F279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC9C0F-FE44-42B8-8BA1-AEC1C96DCC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>NB: lees alle 6 tooltips/notes (hover over cellen met rood driehoekje).</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Kwaliteits handboek</t>
+  </si>
+  <si>
+    <t>Project werken</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1496,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2068,7 @@
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="33">
@@ -2116,7 +2119,9 @@
         <v>22</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="24">
+        <v>11</v>
+      </c>
       <c r="E12" s="29"/>
       <c r="F12" s="33">
         <f>IF($D12-SUM($E12:E12)&gt;F$5-SUM(F$7:F11),F$5-SUM(F$7:F11),$D12-SUM($E12:E12))</f>
@@ -2184,7 +2189,9 @@
         <v>24</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
       <c r="E13" s="29"/>
       <c r="F13" s="33">
         <f>IF($D13-SUM($E13:E13)&gt;F$5-SUM(F$7:F12),F$5-SUM(F$7:F12),$D13-SUM($E13:E13))</f>
@@ -2246,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
@@ -2294,31 +2301,19 @@
       <c r="V14" s="33"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33">
-        <f>IF($D14-SUM($E14:W14)&gt;X$5-SUM(X$7:X13),X$5-SUM(X$7:X13),$D14-SUM($E14:W14))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33">
-        <f>IF($D14-SUM($E14:Z14)&gt;AA$5-SUM(AA$7:AA13),AA$5-SUM(AA$7:AA13),$D14-SUM($E14:Z14))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="33">
-        <f>IF($D14-SUM($E14:AA14)&gt;AB$5-SUM(AB$7:AB13),AB$5-SUM(AB$7:AB13),$D14-SUM($E14:AA14))</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="33">
-        <f>IF($D14-SUM($E14:AB14)&gt;AC$5-SUM(AC$7:AC13),AC$5-SUM(AC$7:AC13),$D14-SUM($E14:AB14))</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="33">
-        <f>IF($D14-SUM($E14:AC14)&gt;AD$5-SUM(AD$7:AD13),AD$5-SUM(AD$7:AD13),$D14-SUM($E14:AC14))</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="33">
-        <f>IF($D14-SUM($E14:AD14)&gt;AE$5-SUM(AE$7:AE13),AE$5-SUM(AE$7:AE13),$D14-SUM($E14:AD14))</f>
-        <v>0</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
       <c r="AG14" s="53"/>
     </row>
@@ -2327,7 +2322,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
@@ -2411,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
@@ -2492,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
@@ -2573,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
@@ -2653,7 +2648,9 @@
       <c r="A19" s="54">
         <v>12</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
       <c r="E19" s="29"/>
@@ -9931,7 +9928,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <conditionalFormatting sqref="G5:L5 F6:AG107 R5:S5 Y5:Z5 AF5:AG5">
+  <conditionalFormatting sqref="G5:L5 R5:S5 Y5:Z5 AF5:AG5 F6:AG107">
     <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>OR(WEEKDAY(F$6)=1,WEEKDAY(F$6)=7)</formula>
     </cfRule>
@@ -10103,29 +10100,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C5151218AB56640BDBA68249A073511" ma:contentTypeVersion="23" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a1da3f48426d5c2cead333d31125cb2a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="b7e4e9fd-5e36-4299-889f-f6136aff670e" xmlns:ns3="fbafb59e-d651-4668-8e65-f7f85ceca18b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1529523bac735da72c0db022ce5932da" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10400,27 +10374,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Cohort xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD165FD-9EB2-417A-BD8F-C3BE3D0B7D37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10438,4 +10415,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69471D0-9E76-49CC-83BD-A0DADDC861F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C73059C-C1E8-4277-A8B4-81AF0BAF2A41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>